--- a/static/sau_ga/en/Графики_en.xlsx
+++ b/static/sau_ga/en/Графики_en.xlsx
@@ -14,16 +14,53 @@
     <sheet name="P=f(y1,psi)" sheetId="9" r:id="rId5"/>
     <sheet name="P=const" sheetId="11" r:id="rId6"/>
     <sheet name="field tests" sheetId="13" r:id="rId7"/>
+    <sheet name="isolines" sheetId="14" r:id="rId8"/>
+    <sheet name="q and hk" sheetId="15" r:id="rId9"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId8"/>
+    <externalReference r:id="rId10"/>
+    <externalReference r:id="rId11"/>
   </externalReferences>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Vladislav Voytenok</author>
+  </authors>
+  <commentList>
+    <comment ref="F5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Vladislav Voytenok:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Изначально было 59.52. Скорректировано по трендам.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="37">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -105,6 +142,36 @@
   <si>
     <t>n' [о.е.]</t>
   </si>
+  <si>
+    <t>Изолиния №1</t>
+  </si>
+  <si>
+    <t>P, МВт</t>
+  </si>
+  <si>
+    <t>Y1, %</t>
+  </si>
+  <si>
+    <t>Y2, %</t>
+  </si>
+  <si>
+    <t>H=11.6 m</t>
+  </si>
+  <si>
+    <t>H=14 m</t>
+  </si>
+  <si>
+    <t>H=17 m</t>
+  </si>
+  <si>
+    <t>H=18 m</t>
+  </si>
+  <si>
+    <t>H=19 m</t>
+  </si>
+  <si>
+    <t>H=20.4 m</t>
+  </si>
 </sst>
 </file>
 
@@ -115,7 +182,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.00&quot;р.&quot;_-;\-* #,##0.00&quot;р.&quot;_-;_-* \-??&quot;р.&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -207,8 +274,28 @@
       <name val="Arial Cyr"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -266,6 +353,12 @@
       <patternFill patternType="solid">
         <fgColor indexed="44"/>
         <bgColor indexed="31"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -430,7 +523,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -485,6 +578,18 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -502,6 +607,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1258,25 +1372,25 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="235"/>
                 <c:pt idx="9">
-                  <c:v>0.2</c:v>
+                  <c:v>0.20100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>0.19900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>0.2</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.20100000000000001</c:v>
-                </c:pt>
                 <c:pt idx="13">
+                  <c:v>0.19900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>0.2</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.20100000000000001</c:v>
-                </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.2</c:v>
+                  <c:v>0.19900000000000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0.2</c:v>
@@ -1285,10 +1399,10 @@
                   <c:v>0.19900000000000001</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.2</c:v>
+                  <c:v>0.19900000000000001</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.20100000000000001</c:v>
+                  <c:v>0.19900000000000001</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>0.19900000000000001</c:v>
@@ -1306,16 +1420,16 @@
                   <c:v>0.19900000000000001</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.2</c:v>
+                  <c:v>0.19900000000000001</c:v>
                 </c:pt>
                 <c:pt idx="26">
+                  <c:v>0.20100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
                   <c:v>0.19900000000000001</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>0.20100000000000001</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.19900000000000001</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>0.19900000000000001</c:v>
@@ -1330,16 +1444,16 @@
                   <c:v>0.19900000000000001</c:v>
                 </c:pt>
                 <c:pt idx="33">
+                  <c:v>0.19900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.19900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="35">
                   <c:v>0.2</c:v>
                 </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.20100000000000001</c:v>
-                </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.20100000000000001</c:v>
+                  <c:v>0.19900000000000001</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>0.2</c:v>
@@ -1348,7 +1462,7 @@
                   <c:v>0.19900000000000001</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.2</c:v>
+                  <c:v>0.20100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>0.20100000000000001</c:v>
@@ -1360,13 +1474,13 @@
                   <c:v>0.20100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.2</c:v>
+                  <c:v>0.19900000000000001</c:v>
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.19900000000000001</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>0.20100000000000001</c:v>
@@ -1375,64 +1489,64 @@
                   <c:v>0.19900000000000001</c:v>
                 </c:pt>
                 <c:pt idx="48">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="49">
                   <c:v>0.20100000000000001</c:v>
                 </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.2</c:v>
-                </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.2</c:v>
+                  <c:v>0.20100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>0.20100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.2</c:v>
+                  <c:v>0.20100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="54">
+                  <c:v>0.20100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.20100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.20100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="57">
                   <c:v>0.19900000000000001</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0.19900000000000001</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="58">
                   <c:v>0.20100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.19800000000000001</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.19800000000000001</c:v>
+                  <c:v>0.19700000000000001</c:v>
                 </c:pt>
                 <c:pt idx="61">
                   <c:v>0.19700000000000001</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.19600000000000001</c:v>
+                  <c:v>0.19700000000000001</c:v>
                 </c:pt>
                 <c:pt idx="63">
+                  <c:v>0.19800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="65">
                   <c:v>0.19900000000000001</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>0.19800000000000001</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>0.20100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="66">
                   <c:v>0.20100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.2</c:v>
+                  <c:v>0.20100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="68">
                   <c:v>0.2</c:v>
@@ -1441,13 +1555,13 @@
                   <c:v>0.20100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.20100000000000001</c:v>
+                  <c:v>0.20200000000000001</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.20100000000000001</c:v>
+                  <c:v>0.20200000000000001</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.20300000000000001</c:v>
+                  <c:v>0.20200000000000001</c:v>
                 </c:pt>
                 <c:pt idx="73">
                   <c:v>0.20300000000000001</c:v>
@@ -1462,13 +1576,13 @@
                   <c:v>0.20300000000000001</c:v>
                 </c:pt>
                 <c:pt idx="77">
+                  <c:v>0.20300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.20300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="79">
                   <c:v>0.20399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>0.20399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>0.20499999999999999</c:v>
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>0.20499999999999999</c:v>
@@ -1486,88 +1600,88 @@
                   <c:v>0.20499999999999999</c:v>
                 </c:pt>
                 <c:pt idx="85">
+                  <c:v>0.20599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="86">
                   <c:v>0.20699999999999999</c:v>
                 </c:pt>
-                <c:pt idx="86">
+                <c:pt idx="87">
                   <c:v>0.20599999999999999</c:v>
                 </c:pt>
-                <c:pt idx="87">
-                  <c:v>0.20699999999999999</c:v>
-                </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.20699999999999999</c:v>
+                  <c:v>0.20599999999999999</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.20699999999999999</c:v>
+                  <c:v>0.20799999999999999</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.20699999999999999</c:v>
+                  <c:v>0.20899999999999999</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.21</c:v>
+                  <c:v>0.20799999999999999</c:v>
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>0.20799999999999999</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.21</c:v>
+                  <c:v>0.20899999999999999</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.20799999999999999</c:v>
+                  <c:v>0.20899999999999999</c:v>
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>0.20799999999999999</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.20599999999999999</c:v>
+                  <c:v>0.20799999999999999</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.20799999999999999</c:v>
+                  <c:v>0.20699999999999999</c:v>
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>0.20599999999999999</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.20699999999999999</c:v>
+                  <c:v>0.20799999999999999</c:v>
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>0.20699999999999999</c:v>
                 </c:pt>
                 <c:pt idx="101">
+                  <c:v>0.20799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="102">
                   <c:v>0.20599999999999999</c:v>
                 </c:pt>
-                <c:pt idx="102">
+                <c:pt idx="103">
                   <c:v>0.20799999999999999</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>0.20599999999999999</c:v>
                 </c:pt>
                 <c:pt idx="104">
                   <c:v>0.20799999999999999</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>0.20599999999999999</c:v>
+                  <c:v>0.20799999999999999</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>0.20799999999999999</c:v>
+                  <c:v>0.20699999999999999</c:v>
                 </c:pt>
                 <c:pt idx="107">
                   <c:v>0.20799999999999999</c:v>
                 </c:pt>
                 <c:pt idx="108">
+                  <c:v>0.20599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0.20799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="110">
                   <c:v>0.20699999999999999</c:v>
                 </c:pt>
-                <c:pt idx="109">
-                  <c:v>0.20599999999999999</c:v>
-                </c:pt>
-                <c:pt idx="110">
+                <c:pt idx="111">
                   <c:v>0.20799999999999999</c:v>
                 </c:pt>
-                <c:pt idx="111">
-                  <c:v>0.20599999999999999</c:v>
-                </c:pt>
                 <c:pt idx="112">
-                  <c:v>0.20699999999999999</c:v>
+                  <c:v>0.20799999999999999</c:v>
                 </c:pt>
                 <c:pt idx="113">
                   <c:v>0.20599999999999999</c:v>
@@ -1579,25 +1693,25 @@
                   <c:v>0.20699999999999999</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>0.20799999999999999</c:v>
+                  <c:v>0.20599999999999999</c:v>
                 </c:pt>
                 <c:pt idx="117">
                   <c:v>0.20599999999999999</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>0.20799999999999999</c:v>
+                  <c:v>0.20599999999999999</c:v>
                 </c:pt>
                 <c:pt idx="119">
                   <c:v>0.20799999999999999</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>0.20599999999999999</c:v>
+                  <c:v>0.20699999999999999</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>0.20599999999999999</c:v>
+                  <c:v>0.20699999999999999</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>0.20799999999999999</c:v>
+                  <c:v>0.20699999999999999</c:v>
                 </c:pt>
                 <c:pt idx="123">
                   <c:v>0.20699999999999999</c:v>
@@ -1606,25 +1720,25 @@
                   <c:v>0.20599999999999999</c:v>
                 </c:pt>
                 <c:pt idx="125">
+                  <c:v>0.20799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0.20799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="127">
                   <c:v>0.20599999999999999</c:v>
                 </c:pt>
-                <c:pt idx="126">
-                  <c:v>0.20599999999999999</c:v>
-                </c:pt>
-                <c:pt idx="127">
+                <c:pt idx="128">
                   <c:v>0.20799999999999999</c:v>
                 </c:pt>
-                <c:pt idx="128">
-                  <c:v>0.20599999999999999</c:v>
-                </c:pt>
                 <c:pt idx="129">
-                  <c:v>0.20699999999999999</c:v>
+                  <c:v>0.20799999999999999</c:v>
                 </c:pt>
                 <c:pt idx="130">
                   <c:v>0.20599999999999999</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>0.20699999999999999</c:v>
+                  <c:v>0.20799999999999999</c:v>
                 </c:pt>
                 <c:pt idx="132">
                   <c:v>0.20599999999999999</c:v>
@@ -1633,37 +1747,37 @@
                   <c:v>0.20699999999999999</c:v>
                 </c:pt>
                 <c:pt idx="134">
+                  <c:v>0.20699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>0.20699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>0.20699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>0.20599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>0.20699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>0.20599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="140">
                   <c:v>0.20799999999999999</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>0.20799999999999999</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>0.20799999999999999</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>0.20699999999999999</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>0.20799999999999999</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>0.20799999999999999</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>0.20699999999999999</c:v>
                 </c:pt>
                 <c:pt idx="141">
                   <c:v>0.20799999999999999</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>0.20799999999999999</c:v>
+                  <c:v>0.20599999999999999</c:v>
                 </c:pt>
                 <c:pt idx="143">
                   <c:v>0.20699999999999999</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>0.20599999999999999</c:v>
+                  <c:v>0.20699999999999999</c:v>
                 </c:pt>
                 <c:pt idx="145">
                   <c:v>0.20599999999999999</c:v>
@@ -1675,22 +1789,22 @@
                   <c:v>0.20799999999999999</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>0.20699999999999999</c:v>
+                  <c:v>0.20799999999999999</c:v>
                 </c:pt>
                 <c:pt idx="149">
                   <c:v>0.20699999999999999</c:v>
                 </c:pt>
                 <c:pt idx="150">
+                  <c:v>0.20599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="151">
                   <c:v>0.20799999999999999</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>0.20599999999999999</c:v>
                 </c:pt>
                 <c:pt idx="152">
                   <c:v>0.20699999999999999</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>0.20799999999999999</c:v>
+                  <c:v>0.20699999999999999</c:v>
                 </c:pt>
                 <c:pt idx="154">
                   <c:v>0.20599999999999999</c:v>
@@ -1699,13 +1813,13 @@
                   <c:v>0.20799999999999999</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>0.20699999999999999</c:v>
+                  <c:v>0.20799999999999999</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>0.20699999999999999</c:v>
+                  <c:v>0.20599999999999999</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>0.20599999999999999</c:v>
+                  <c:v>0.20799999999999999</c:v>
                 </c:pt>
                 <c:pt idx="159">
                   <c:v>0.20599999999999999</c:v>
@@ -1714,28 +1828,28 @@
                   <c:v>0.20699999999999999</c:v>
                 </c:pt>
                 <c:pt idx="161">
+                  <c:v>0.20899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>0.20899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="163">
                   <c:v>0.21</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>0.20799999999999999</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>0.20899999999999999</c:v>
                 </c:pt>
                 <c:pt idx="164">
                   <c:v>0.21</c:v>
                 </c:pt>
                 <c:pt idx="165">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="166">
                   <c:v>0.20899999999999999</c:v>
                 </c:pt>
-                <c:pt idx="166">
-                  <c:v>0.21</c:v>
-                </c:pt>
                 <c:pt idx="167">
+                  <c:v>0.20699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="168">
                   <c:v>0.20799999999999999</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>0.20699999999999999</c:v>
                 </c:pt>
                 <c:pt idx="169">
                   <c:v>0.20599999999999999</c:v>
@@ -1750,7 +1864,7 @@
                   <c:v>0.20599999999999999</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>0.20599999999999999</c:v>
+                  <c:v>0.20499999999999999</c:v>
                 </c:pt>
                 <c:pt idx="174">
                   <c:v>0.20499999999999999</c:v>
@@ -1759,10 +1873,10 @@
                   <c:v>0.20499999999999999</c:v>
                 </c:pt>
                 <c:pt idx="176">
+                  <c:v>0.20499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="177">
                   <c:v>0.20399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>0.20499999999999999</c:v>
                 </c:pt>
                 <c:pt idx="178">
                   <c:v>0.20300000000000001</c:v>
@@ -1777,43 +1891,43 @@
                   <c:v>0.20300000000000001</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>0.20300000000000001</c:v>
+                  <c:v>0.20200000000000001</c:v>
                 </c:pt>
                 <c:pt idx="183">
                   <c:v>0.20200000000000001</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>0.20300000000000001</c:v>
+                  <c:v>0.20200000000000001</c:v>
                 </c:pt>
                 <c:pt idx="185">
                   <c:v>0.20200000000000001</c:v>
                 </c:pt>
                 <c:pt idx="186">
+                  <c:v>0.20100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="187">
                   <c:v>0.20200000000000001</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>0.20100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="188">
                   <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>0.20100000000000001</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>0.20100000000000001</c:v>
+                  <c:v>0.19900000000000001</c:v>
                 </c:pt>
                 <c:pt idx="191">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="192">
                   <c:v>0.19900000000000001</c:v>
-                </c:pt>
-                <c:pt idx="192">
-                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="193">
                   <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>0.19900000000000001</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="195">
                   <c:v>0.2</c:v>
@@ -1822,19 +1936,19 @@
                   <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="197">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="198">
                   <c:v>0.20100000000000001</c:v>
-                </c:pt>
-                <c:pt idx="198">
-                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="199">
                   <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="200">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="201">
                   <c:v>0.20100000000000001</c:v>
-                </c:pt>
-                <c:pt idx="201">
-                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="202">
                   <c:v>0.2</c:v>
@@ -1843,10 +1957,10 @@
                   <c:v>0.20100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>0.2</c:v>
+                  <c:v>0.20100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>0.2</c:v>
+                  <c:v>0.20100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="206">
                   <c:v>0.2</c:v>
@@ -1855,7 +1969,7 @@
                   <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>0.2</c:v>
+                  <c:v>0.20100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="209">
                   <c:v>0.2</c:v>
@@ -1873,22 +1987,22 @@
                   <c:v>0.20100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="214">
+                  <c:v>0.20100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>0.20100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="216">
                   <c:v>0.2</c:v>
                 </c:pt>
-                <c:pt idx="215">
+                <c:pt idx="217">
+                  <c:v>0.20100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="218">
                   <c:v>0.2</c:v>
                 </c:pt>
-                <c:pt idx="216">
-                  <c:v>0.20100000000000001</c:v>
-                </c:pt>
-                <c:pt idx="217">
+                <c:pt idx="219">
                   <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="218">
-                  <c:v>0.20100000000000001</c:v>
-                </c:pt>
-                <c:pt idx="219">
-                  <c:v>0.20100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="220">
                   <c:v>0.20100000000000001</c:v>
@@ -1897,7 +2011,7 @@
                   <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>0.2</c:v>
+                  <c:v>0.20100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="223">
                   <c:v>0.2</c:v>
@@ -1915,16 +2029,16 @@
                   <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>0.2</c:v>
+                  <c:v>0.20100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="229">
                   <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="230">
+                  <c:v>0.20100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="231">
                   <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="231">
-                  <c:v>0.20100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="232">
                   <c:v>0.2</c:v>
@@ -1933,7 +2047,7 @@
                   <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>0.2</c:v>
+                  <c:v>0.20100000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2415,11 +2529,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="107227776"/>
-        <c:axId val="107246720"/>
+        <c:axId val="106073472"/>
+        <c:axId val="105326464"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="107227776"/>
+        <c:axId val="106073472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="60"/>
@@ -2513,12 +2627,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="107246720"/>
+        <c:crossAx val="105326464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="107246720"/>
+        <c:axId val="105326464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.22000000000000003"/>
@@ -2614,7 +2728,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="107227776"/>
+        <c:crossAx val="106073472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2689,7 +2803,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2705,10 +2819,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.1201775562532616"/>
-          <c:y val="2.6945205827731231E-2"/>
-          <c:w val="0.84926436180683973"/>
-          <c:h val="0.85146638884468295"/>
+          <c:x val="0.10010314756094564"/>
+          <c:y val="3.4599087798582839E-2"/>
+          <c:w val="0.86662923236183975"/>
+          <c:h val="0.82510761903710894"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -2717,10 +2831,10 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Pk текущая</c:v>
+            <c:v>60 MWt</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="12700">
+            <a:ln w="25400">
               <a:solidFill>
                 <a:srgbClr val="0070C0"/>
               </a:solidFill>
@@ -2744,169 +2858,54 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'[1]Приведение к 18,09 м'!$C$33:$C$39</c:f>
+              <c:f>isolines!$B$3:$B$8</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>34.220041811846691</c:v>
+                  <c:v>60.48</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44.861114982578393</c:v>
+                  <c:v>61.4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>51.715101045296166</c:v>
+                  <c:v>62.45</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>58.309860627177699</c:v>
+                  <c:v>63.08</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>64.008515679442496</c:v>
+                  <c:v>64.98</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>72.020808362369351</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>78.562696864111501</c:v>
+                  <c:v>66.099999999999994</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'[1]Приведение к 18,09 м'!$B$33:$B$39</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>16.507813894377861</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>27.458010525027298</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>36.490715693771463</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>46.826464963315161</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>56.71740323221136</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>68.305878957044115</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>79.32851494986798</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>Pk снятая ЦКТИ</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="12700">
-              <a:solidFill>
-                <a:srgbClr val="09E11E"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="diamond"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:ln w="12700">
-                <a:solidFill>
-                  <a:srgbClr val="09E11E"/>
-                </a:solidFill>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'[1]Приведение к 18,09 м'!$F$14:$F$23</c:f>
+              <c:f>isolines!$C$3:$C$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>46.034843205574916</c:v>
+                  <c:v>68.17</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>48.984668989547039</c:v>
+                  <c:v>66.08</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>51.386759581881535</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>53.73937282229965</c:v>
+                  <c:v>62.72</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>56.417421602787464</c:v>
+                  <c:v>61.25</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>58.986062717770039</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>63.466898954703836</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>68.275261324041807</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>72.648083623693381</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>77.348432055749129</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'[1]Приведение к 18,09 м'!$C$14:$C$23</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>29.35</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>33.25</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>36.75</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>40.299999999999997</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>44.15</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>47.9</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>54.43</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>61.45</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>67.78</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>74.849999999999994</c:v>
+                  <c:v>59.89</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2915,12 +2914,12 @@
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
-          <c:order val="2"/>
+          <c:order val="1"/>
           <c:tx>
-            <c:v>Pk снятая Ракурс (РК вверх)</c:v>
+            <c:v>50 MWt</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="12700">
+            <a:ln w="25400">
               <a:solidFill>
                 <a:srgbClr val="F20000"/>
               </a:solidFill>
@@ -2942,75 +2941,63 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'[1]Приведение к 18,09 м'!$T$4:$T$10</c:f>
+              <c:f>isolines!$F$3:$F$8</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>35.43</c:v>
+                  <c:v>63.25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44.93</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>46.94</c:v>
+                  <c:v>59.6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>51.19</c:v>
+                  <c:v>57.98</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>57.57</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>64.732799999999997</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>67.968999999999994</c:v>
+                  <c:v>56.61</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'[1]Приведение к 18,09 м'!$G$4:$G$10</c:f>
+              <c:f>isolines!$G$3:$G$8</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>17.911787104466743</c:v>
+                  <c:v>44.43</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>26.971510344125903</c:v>
+                  <c:v>45.65</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>31.722535975590759</c:v>
+                  <c:v>47.11</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>36.42388543901037</c:v>
+                  <c:v>48.81</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>46.063904490717725</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>55.315895685615857</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>60.483373936779991</c:v>
+                  <c:v>50.33</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="6245760"/>
-        <c:axId val="6264704"/>
+        <c:axId val="107733760"/>
+        <c:axId val="107736064"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="6245760"/>
+        <c:axId val="107733760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="75"/>
-          <c:min val="30"/>
+          <c:max val="68"/>
+          <c:min val="55"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorGridlines>
@@ -3023,16 +3010,6 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:minorGridlines>
-          <c:spPr>
-            <a:ln w="3175">
-              <a:solidFill>
-                <a:srgbClr val="C0C0C0"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </c:spPr>
-        </c:minorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -3040,45 +3017,25 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                    <a:ea typeface="Calibri"/>
-                    <a:cs typeface="Calibri"/>
-                  </a:defRPr>
+                  <a:defRPr b="1"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Times New Roman"/>
-                    <a:cs typeface="Times New Roman"/>
-                  </a:rPr>
-                  <a:t>y</a:t>
+                  <a:rPr lang="en-US" b="1"/>
+                  <a:t>Guide vanes position A</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="-25000">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Times New Roman"/>
-                    <a:cs typeface="Times New Roman"/>
-                  </a:rPr>
-                  <a:t>1</a:t>
+                  <a:rPr lang="en-US" b="1" baseline="-25000"/>
+                  <a:t>0</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Times New Roman"/>
-                    <a:cs typeface="Times New Roman"/>
-                  </a:rPr>
-                  <a:t>, %</a:t>
+                  <a:rPr lang="ru-RU" b="1"/>
+                  <a:t>, </a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" b="1"/>
+                  <a:t>%</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU" b="1"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -3086,8 +3043,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.50374836479719476"/>
-              <c:y val="0.91968095902566682"/>
+              <c:x val="0.32847941151123478"/>
+              <c:y val="0.94128786127650366"/>
             </c:manualLayout>
           </c:layout>
           <c:spPr>
@@ -3113,28 +3070,21 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Arial Cyr"/>
-                <a:ea typeface="Arial Cyr"/>
-                <a:cs typeface="Arial Cyr"/>
-              </a:defRPr>
+              <a:defRPr/>
             </a:pPr>
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="6264704"/>
+        <c:crossAx val="107736064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="6264704"/>
+        <c:axId val="107736064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="72"/>
-          <c:min val="15"/>
+          <c:max val="70"/>
+          <c:min val="42"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines>
@@ -3147,16 +3097,6 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:minorGridlines>
-          <c:spPr>
-            <a:ln w="3175">
-              <a:solidFill>
-                <a:srgbClr val="C0C0C0"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </c:spPr>
-        </c:minorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -3164,54 +3104,23 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                    <a:ea typeface="Calibri"/>
-                    <a:cs typeface="Calibri"/>
-                  </a:defRPr>
+                  <a:defRPr b="1"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Times New Roman"/>
-                    <a:cs typeface="Times New Roman"/>
-                  </a:rPr>
-                  <a:t>P</a:t>
+                  <a:rPr lang="en-US" b="1"/>
+                  <a:t>Runner blades angle </a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="-25000">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Times New Roman"/>
-                    <a:cs typeface="Times New Roman"/>
-                  </a:rPr>
-                  <a:t>k</a:t>
+                  <a:rPr lang="ru-RU" b="1"/>
+                  <a:t>Ѱ</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Times New Roman"/>
-                    <a:cs typeface="Times New Roman"/>
-                  </a:rPr>
+                  <a:rPr lang="en-US" b="1"/>
                   <a:t>, </a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="ru-RU" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Times New Roman"/>
-                    <a:cs typeface="Times New Roman"/>
-                  </a:rPr>
-                  <a:t>МВт</a:t>
+                  <a:rPr lang="ru-RU" b="1"/>
+                  <a:t>°</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -3220,8 +3129,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="1.2987735345278117E-2"/>
-              <c:y val="0.4098612492788048"/>
+              <c:x val="8.5570522158952261E-3"/>
+              <c:y val="0.28021363642735519"/>
             </c:manualLayout>
           </c:layout>
           <c:spPr>
@@ -3247,22 +3156,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Arial Cyr"/>
-                <a:ea typeface="Arial Cyr"/>
-                <a:cs typeface="Arial Cyr"/>
-              </a:defRPr>
+              <a:defRPr/>
             </a:pPr>
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="6245760"/>
+        <c:crossAx val="107733760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="5"/>
       </c:valAx>
       <c:spPr>
         <a:solidFill>
@@ -3282,22 +3183,22 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="8.2236875127240355E-3"/>
-          <c:y val="0.97981973337175265"/>
-          <c:w val="0.98355302652179377"/>
-          <c:h val="1.4613788636936655E-2"/>
+          <c:x val="0.14633993705681975"/>
+          <c:y val="0.16085143620295356"/>
+          <c:w val="0.22372212034681221"/>
+          <c:h val="0.16514063908741294"/>
         </c:manualLayout>
       </c:layout>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1200"/>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -3307,9 +3208,7 @@
       <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln w="3175">
-      <a:solidFill>
-        <a:srgbClr val="000000"/>
-      </a:solidFill>
+      <a:noFill/>
       <a:prstDash val="solid"/>
     </a:ln>
   </c:spPr>
@@ -3318,13 +3217,13 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr sz="950" b="0" i="0" u="none" strike="noStrike" baseline="0">
+        <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
           <a:solidFill>
             <a:srgbClr val="000000"/>
           </a:solidFill>
-          <a:latin typeface="Arial Cyr"/>
+          <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
           <a:ea typeface="Arial Cyr"/>
-          <a:cs typeface="Arial Cyr"/>
+          <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
         </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="ru-RU"/>
@@ -3332,8 +3231,485 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.75000000000000022" r="0.75000000000000022" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000000089" r="0.75000000000000089" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup orientation="portrait"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="ru-RU"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10537461013622045"/>
+          <c:y val="2.2649794880684134E-2"/>
+          <c:w val="0.78909285219346459"/>
+          <c:h val="0.8264354648161133"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Calc Discharge</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28440">
+              <a:solidFill>
+                <a:srgbClr val="4A7EBB"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="4A7EBB"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'[2]Расход и Hk'!$C$2:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'[2]Расход и Hk'!$D$2:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>224</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>259</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>296</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>373</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>415</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="107886464"/>
+        <c:axId val="107896832"/>
+      </c:scatterChart>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Found head</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28440">
+              <a:solidFill>
+                <a:srgbClr val="BE4B48"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="BE4B48"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'[2]Расход и Hk'!$C$2:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'[2]Расход и Hk'!$E$2:$E$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>17.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17.45</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17.45</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17.38</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17.11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16.97</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16.86</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16.61</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16.36</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="107898752"/>
+        <c:axId val="107900288"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="107886464"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="60"/>
+          <c:min val="20"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Power output</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>, </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>MWt</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:minorTickMark val="out"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="107896832"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="107896832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9360">
+              <a:solidFill>
+                <a:srgbClr val="878787"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Calculated discharge</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>, </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>m</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>3/</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>s</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:minorTickMark val="out"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="107886464"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="107898752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:tickLblPos val="none"/>
+        <c:crossAx val="107900288"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="107900288"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="17.7"/>
+          <c:min val="16.3"/>
+        </c:scaling>
+        <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Found head</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>, </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>m</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:minorTickMark val="out"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="107898752"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.27827370617550568"/>
+          <c:y val="0.617761756669577"/>
+          <c:w val="0.25724394620164004"/>
+          <c:h val="0.17963498557473923"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="FFFFFF"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000">
+          <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -3547,11 +3923,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="107202048"/>
-        <c:axId val="108789760"/>
+        <c:axId val="106592512"/>
+        <c:axId val="106607360"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="107202048"/>
+        <c:axId val="106592512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="80"/>
@@ -3611,6 +3987,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -3655,12 +4032,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="108789760"/>
+        <c:crossAx val="106607360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="108789760"/>
+        <c:axId val="106607360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3721,6 +4098,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -3765,7 +4143,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="107202048"/>
+        <c:crossAx val="106592512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3779,6 +4157,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -3840,7 +4219,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4055,11 +4434,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="108826624"/>
-        <c:axId val="108828928"/>
+        <c:axId val="106709760"/>
+        <c:axId val="106712064"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="108826624"/>
+        <c:axId val="106709760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="80"/>
@@ -4119,6 +4498,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -4163,12 +4543,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="108828928"/>
+        <c:crossAx val="106712064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="108828928"/>
+        <c:axId val="106712064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4229,6 +4609,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -4273,7 +4654,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="108826624"/>
+        <c:crossAx val="106709760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4287,6 +4668,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -4348,7 +4730,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4365,175 +4747,24 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="9.7328111267921416E-2"/>
-          <c:y val="2.6545130146313524E-2"/>
-          <c:w val="0.86515654924476637"/>
-          <c:h val="0.83713266471287207"/>
+          <c:x val="8.4215011470520559E-2"/>
+          <c:y val="2.6545130146313552E-2"/>
+          <c:w val="0.8782696490421672"/>
+          <c:h val="0.86468078017413508"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="5"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'psi=f(y1,N) (мод)'!$A$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>N=9.8</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:alpha val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="3"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:ln w="38100">
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'psi=f(y1,N) (мод)'!$C$3:$I$3</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="7"/>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'psi=f(y1,N) (мод)'!$C$2:$I$2</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>35</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'psi=f(y1,N) (мод)'!$A$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>N=16.5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:alpha val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'psi=f(y1,N) (мод)'!$C$4:$I$4</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="1">
-                  <c:v>51.449999999999996</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'psi=f(y1,N) (мод)'!$C$2:$I$2</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>35</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="2"/>
           <c:tx>
             <c:strRef>
               <c:f>'psi=f(y1,N) (мод)'!$A$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>N=22</c:v>
+                  <c:v>N=22 MWt</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4541,7 +4772,9 @@
           <c:spPr>
             <a:ln w="25400" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="tx1"/>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="65000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -4608,14 +4841,14 @@
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
-          <c:order val="3"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
               <c:f>'psi=f(y1,N) (мод)'!$A$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>N=28.2</c:v>
+                  <c:v>N=28 MWt</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4623,7 +4856,9 @@
           <c:spPr>
             <a:ln w="25400" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="tx1"/>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -4693,14 +4928,14 @@
         </c:ser>
         <c:ser>
           <c:idx val="7"/>
-          <c:order val="4"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
               <c:f>'psi=f(y1,N) (мод)'!$A$8</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>N=31.4</c:v>
+                  <c:v>N=31 MWt</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4708,7 +4943,10 @@
           <c:spPr>
             <a:ln w="25400" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="tx1"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -4781,14 +5019,14 @@
         </c:ser>
         <c:ser>
           <c:idx val="8"/>
-          <c:order val="5"/>
+          <c:order val="3"/>
           <c:tx>
             <c:strRef>
               <c:f>'psi=f(y1,N) (мод)'!$A$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>N=34.9</c:v>
+                  <c:v>N=35 MWt</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4796,7 +5034,10 @@
           <c:spPr>
             <a:ln w="25400" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="tx1"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -4869,14 +5110,14 @@
         </c:ser>
         <c:ser>
           <c:idx val="9"/>
-          <c:order val="6"/>
+          <c:order val="4"/>
           <c:tx>
             <c:strRef>
               <c:f>'psi=f(y1,N) (мод)'!$A$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>N=41.8</c:v>
+                  <c:v>N=42 MWt</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4884,7 +5125,10 @@
           <c:spPr>
             <a:ln w="25400" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="tx1"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -4953,81 +5197,15 @@
           <c:smooth val="1"/>
         </c:ser>
         <c:ser>
-          <c:idx val="0"/>
-          <c:order val="7"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'psi=f(y1,N) (мод)'!$A$11</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:alpha val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'psi=f(y1,N) (мод)'!$C$11:$I$11</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="7"/>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'psi=f(y1,N) (мод)'!$C$2:$I$2</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>35</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
           <c:idx val="2"/>
-          <c:order val="8"/>
+          <c:order val="5"/>
           <c:tx>
             <c:strRef>
               <c:f>'psi=f(y1,N) (мод)'!$A$12</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>N=47.6</c:v>
+                  <c:v>N=48 MWt</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5035,7 +5213,10 @@
           <c:spPr>
             <a:ln w="25400" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="tx1"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:prstDash val="solid"/>
               <a:round/>
@@ -5106,211 +5287,15 @@
           <c:smooth val="1"/>
         </c:ser>
         <c:ser>
-          <c:idx val="4"/>
-          <c:order val="9"/>
-          <c:tx>
-            <c:v>макс</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="12700" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'psi=f(y1,N) (мод)'!$C$18:$I$18</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="7"/>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'psi=f(y1,N) (мод)'!$C$2:$I$2</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>35</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="10"/>
-          <c:order val="10"/>
-          <c:tx>
-            <c:v>мин</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="15875" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'psi=f(y1,N) (мод)'!$C$19:$I$19</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="7"/>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'psi=f(y1,N) (мод)'!$C$2:$I$2</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>35</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="11"/>
-          <c:order val="11"/>
+          <c:idx val="12"/>
+          <c:order val="6"/>
           <c:tx>
             <c:strRef>
               <c:f>'psi=f(y1,N) (мод)'!$A$13</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>N=53.5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:alpha val="0"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'psi=f(y1,N) (мод)'!$C$12:$I$12</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="2">
-                  <c:v>49.040041759200001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>58.080305343500008</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>67.120568927799994</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'psi=f(y1,N) (мод)'!$C$2:$I$2</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>35</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="12"/>
-          <c:order val="12"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'psi=f(y1,N) (мод)'!$A$13</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>N=53.5</c:v>
+                  <c:v>N=53 MWt</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5318,7 +5303,9 @@
           <c:spPr>
             <a:ln w="25400" cap="rnd">
               <a:solidFill>
-                <a:prstClr val="black"/>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -5384,79 +5371,101 @@
           <c:smooth val="1"/>
         </c:ser>
         <c:ser>
-          <c:idx val="14"/>
-          <c:order val="13"/>
+          <c:idx val="13"/>
+          <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>'psi=f(y1,N) (мод)'!$A$16</c:f>
+              <c:f>'psi=f(y1,N) (мод)'!$K$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>N=90.8</c:v>
+                  <c:v>H=11.6 m</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="25400" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
-                  <a:alpha val="60000"/>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="75000"/>
                 </a:schemeClr>
               </a:solidFill>
+              <a:prstDash val="sysDot"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="3"/>
+            <c:symbol val="triangle"/>
+            <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="tx1"/>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
-              <a:ln w="38100">
+              <a:ln>
                 <a:noFill/>
               </a:ln>
-              <a:effectLst/>
             </c:spPr>
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'psi=f(y1,N) (мод)'!$C$16:$I$16</c:f>
+              <c:f>'psi=f(y1,N) (мод)'!$L$4:$T$4</c:f>
               <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="1">
+                  <c:v>48.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>51.446689895470385</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>58.841811846689893</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>66.379790940766554</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>73.910104529616717</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>77.7</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'psi=f(y1,N) (мод)'!$C$2:$I$2</c:f>
+              <c:f>'psi=f(y1,N) (мод)'!$L$2:$T$2</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>15</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>20</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>25</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>30</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>35</c:v>
                 </c:pt>
               </c:numCache>
@@ -5465,15 +5474,116 @@
           <c:smooth val="1"/>
         </c:ser>
         <c:ser>
-          <c:idx val="13"/>
-          <c:order val="14"/>
+          <c:idx val="15"/>
+          <c:order val="8"/>
           <c:tx>
             <c:strRef>
-              <c:f>'psi=f(y1,N) (мод)'!$K$4</c:f>
+              <c:f>'psi=f(y1,N) (мод)'!$K$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>H=11.6</c:v>
+                  <c:v>H=14 m</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'psi=f(y1,N) (мод)'!$L$5:$T$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="1">
+                  <c:v>45.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>48.436236933797908</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>55.399303135888502</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>62.331707317073167</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>69.196515679442513</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>72.400000000000006</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'psi=f(y1,N) (мод)'!$L$2:$T$2</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>35</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="20"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'psi=f(y1,N) (мод)'!$K$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>H=20.4 m</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5500,138 +5610,29 @@
               </a:ln>
             </c:spPr>
           </c:marker>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="2"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="3"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="4"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="5"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="6"/>
-              <c:layout/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:r>
-                      <a:rPr lang="en-US"/>
-                      <a:t>H1</a:t>
-                    </a:r>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showVal val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="ru-RU"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="t"/>
-            <c:showVal val="1"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>'psi=f(y1,N) (мод)'!$L$4:$T$4</c:f>
+              <c:f>'psi=f(y1,N) (мод)'!$L$9:$T$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="1">
-                  <c:v>48.2</c:v>
+                  <c:v>40.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>51.446689895470385</c:v>
+                  <c:v>43.424390243902437</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>58.841811846689893</c:v>
+                  <c:v>50.162369337979094</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>66.379790940766554</c:v>
+                  <c:v>56.763763066202088</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>73.910104529616717</c:v>
+                  <c:v>61.952613240418117</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>77.7</c:v>
+                  <c:v>64.3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5674,638 +5675,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:ser>
-          <c:idx val="15"/>
-          <c:order val="15"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'psi=f(y1,N) (мод)'!$K$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>H=14</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:prstDash val="sysDot"/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="triangle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="2"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="3"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="4"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="5"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="6"/>
-              <c:layout/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:r>
-                      <a:rPr lang="en-US"/>
-                      <a:t>H2</a:t>
-                    </a:r>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showVal val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="ru-RU"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="t"/>
-            <c:showVal val="1"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'psi=f(y1,N) (мод)'!$L$5:$T$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="1">
-                  <c:v>45.4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>48.436236933797908</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>55.399303135888502</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>62.331707317073167</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>69.196515679442513</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>72.400000000000006</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'psi=f(y1,N) (мод)'!$L$2:$T$2</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>35</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="16"/>
-          <c:order val="16"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'psi=f(y1,N) (мод)'!$K$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>H=17</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:prstDash val="sysDot"/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'psi=f(y1,N) (мод)'!$L$6:$T$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'psi=f(y1,N) (мод)'!$L$2:$T$2</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>35</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="18"/>
-          <c:order val="17"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'psi=f(y1,N) (мод)'!$K$8</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>H=19</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:prstDash val="sysDot"/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'psi=f(y1,N) (мод)'!$L$8:$T$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'psi=f(y1,N) (мод)'!$L$2:$T$2</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>35</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="19"/>
-          <c:order val="18"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'psi=f(y1,N) (мод)'!$A$15</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>N=78.4</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:alpha val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'psi=f(y1,N) (мод)'!$C$15:$I$15</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="7"/>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'psi=f(y1,N) (мод)'!$C$2:$I$2</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>35</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="20"/>
-          <c:order val="19"/>
-          <c:tx>
-            <c:v>H=20.4</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:prstDash val="sysDot"/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="triangle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="2"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="3"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="4"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="5"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="6"/>
-              <c:layout/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:r>
-                      <a:rPr lang="en-US"/>
-                      <a:t>H3</a:t>
-                    </a:r>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showVal val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="ru-RU"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="t"/>
-            <c:showVal val="1"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'psi=f(y1,N) (мод)'!$L$9:$T$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="1">
-                  <c:v>40.5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>43.424390243902437</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>50.162369337979094</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>56.763763066202088</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>61.952613240418117</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>64.3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'psi=f(y1,N) (мод)'!$L$2:$T$2</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>35</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:axId val="109185280"/>
-        <c:axId val="109195648"/>
+        <c:axId val="106878848"/>
+        <c:axId val="106508672"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="109185280"/>
+        <c:axId val="106878848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="40"/>
@@ -6325,29 +5699,15 @@
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr rot="0" vert="horz"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                  </a:defRPr>
+                  <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" cap="none" baseline="0"/>
-                  <a:t>Guide vanes position </a:t>
-                </a:r>
-                <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>A</a:t>
+                  <a:t>Guide vanes position A</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US" baseline="-25000"/>
@@ -6387,31 +5747,21 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-60000000" vert="horz"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              </a:defRPr>
+              <a:defRPr/>
             </a:pPr>
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="109195648"/>
+        <c:crossAx val="106508672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="109195648"/>
+        <c:axId val="106508672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="30"/>
@@ -6432,29 +5782,15 @@
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr rot="-5400000" vert="horz"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                  </a:defRPr>
+                  <a:defRPr/>
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Runner blades angle</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> </a:t>
+                  <a:t>Runner blades angle </a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="ru-RU"/>
@@ -6462,11 +5798,7 @@
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>,</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> </a:t>
+                  <a:t>, </a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="ru-RU"/>
@@ -6479,8 +5811,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="4.1782947910878436E-3"/>
-              <c:y val="0.36772572562975342"/>
+              <c:x val="4.1782947910878488E-3"/>
+              <c:y val="0.36772572562975364"/>
             </c:manualLayout>
           </c:layout>
           <c:spPr>
@@ -6504,26 +5836,16 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-60000000" vert="horz"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              </a:defRPr>
+              <a:defRPr/>
             </a:pPr>
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="109185280"/>
+        <c:crossAx val="106878848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6537,6 +5859,30 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.50621521350174314"/>
+          <c:y val="0.55830514702612677"/>
+          <c:w val="0.44788893720735401"/>
+          <c:h val="0.29385811454374416"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
   </c:chart>
@@ -6555,7 +5901,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr sz="1200" cap="none" baseline="0">
+        <a:defRPr sz="1000" cap="none" baseline="0">
           <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
           <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
         </a:defRPr>
@@ -6565,7 +5911,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6582,518 +5928,24 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.16070800851926156"/>
-          <c:y val="2.6545130146313545E-2"/>
-          <c:w val="0.80177652004123667"/>
+          <c:x val="9.8880069426805536E-2"/>
+          <c:y val="2.6545130146313562E-2"/>
+          <c:w val="0.86360447887562442"/>
           <c:h val="0.83713266471287207"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="13"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'psi=f(y1,N) (мод)'!$A$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>N=9.8</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:alpha val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="3"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:ln w="38100">
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'psi=f(y1,N) (мод)'!$C$3:$I$3</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="7"/>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'psi=f(y1,N) (мод)'!$C$2:$I$2</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>35</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'psi=f(y1,N) (мод)'!$A$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>N=16.5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:alpha val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'psi=f(y1,N) (мод)'!$C$4:$I$4</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="1">
-                  <c:v>51.449999999999996</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'psi=f(y1,N) (мод)'!$C$2:$I$2</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>35</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'psi=f(y1,N) (мод)'!$A$11</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:alpha val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'psi=f(y1,N) (мод)'!$C$11:$I$11</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="7"/>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'psi=f(y1,N) (мод)'!$C$2:$I$2</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>35</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:v>макс</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="12700" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'psi=f(y1,N) (мод)'!$C$18:$I$18</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="7"/>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'psi=f(y1,N) (мод)'!$C$2:$I$2</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>35</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="10"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:v>мин</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="15875" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'psi=f(y1,N) (мод)'!$C$19:$I$19</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="7"/>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'psi=f(y1,N) (мод)'!$C$2:$I$2</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>35</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="11"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'psi=f(y1,N) (мод)'!$A$13</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>N=53.5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:alpha val="0"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'psi=f(y1,N) (мод)'!$C$12:$I$12</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="2">
-                  <c:v>49.040041759200001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>58.080305343500008</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>67.120568927799994</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'psi=f(y1,N) (мод)'!$C$2:$I$2</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>35</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="14"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'psi=f(y1,N) (мод)'!$A$16</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>N=90.8</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
-                  <a:alpha val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="3"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:ln w="38100">
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'psi=f(y1,N) (мод)'!$C$16:$I$16</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="7"/>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'psi=f(y1,N) (мод)'!$C$2:$I$2</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>35</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="13"/>
-          <c:order val="7"/>
           <c:tx>
             <c:strRef>
               <c:f>'psi=f(y1,N) (мод)'!$K$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>H=11.6</c:v>
+                  <c:v>H=11.6 m</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7101,7 +5953,9 @@
           <c:spPr>
             <a:ln w="25400" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:prstDash val="solid"/>
               <a:round/>
@@ -7187,23 +6041,11 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
+              <a:bodyPr rot="0" vert="horz"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                  </a:defRPr>
+                  <a:defRPr/>
                 </a:pPr>
                 <a:endParaRPr lang="ru-RU"/>
               </a:p>
@@ -7296,14 +6138,14 @@
         </c:ser>
         <c:ser>
           <c:idx val="15"/>
-          <c:order val="8"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
               <c:f>'psi=f(y1,N) (мод)'!$K$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>H=14</c:v>
+                  <c:v>H=14 m</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7311,7 +6153,7 @@
           <c:spPr>
             <a:ln w="25400" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+                <a:srgbClr val="C00000"/>
               </a:solidFill>
               <a:prstDash val="solid"/>
               <a:round/>
@@ -7397,23 +6239,11 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
+              <a:bodyPr rot="0" vert="horz"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                  </a:defRPr>
+                  <a:defRPr/>
                 </a:pPr>
                 <a:endParaRPr lang="ru-RU"/>
               </a:p>
@@ -7505,228 +6335,18 @@
           <c:smooth val="1"/>
         </c:ser>
         <c:ser>
-          <c:idx val="16"/>
-          <c:order val="9"/>
+          <c:idx val="20"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'psi=f(y1,N) (мод)'!$K$6</c:f>
+              <c:f>'psi=f(y1,N) (мод)'!$K$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>H=17</c:v>
+                  <c:v>H=20.4 m</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:prstDash val="sysDot"/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'psi=f(y1,N) (мод)'!$L$6:$T$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'psi=f(y1,N) (мод)'!$L$2:$T$2</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>35</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="18"/>
-          <c:order val="10"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'psi=f(y1,N) (мод)'!$K$8</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>H=19</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:prstDash val="sysDot"/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'psi=f(y1,N) (мод)'!$L$8:$T$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'psi=f(y1,N) (мод)'!$L$2:$T$2</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>35</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="19"/>
-          <c:order val="11"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'psi=f(y1,N) (мод)'!$A$15</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>N=78.4</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:alpha val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'psi=f(y1,N) (мод)'!$C$15:$I$15</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="7"/>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'psi=f(y1,N) (мод)'!$C$2:$I$2</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>35</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="20"/>
-          <c:order val="12"/>
-          <c:tx>
-            <c:v>H=20.4</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
@@ -7817,23 +6437,11 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
+              <a:bodyPr rot="0" vert="horz"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                  </a:defRPr>
+                  <a:defRPr/>
                 </a:pPr>
                 <a:endParaRPr lang="ru-RU"/>
               </a:p>
@@ -7924,11 +6532,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="133810816"/>
-        <c:axId val="133894912"/>
+        <c:axId val="106556032"/>
+        <c:axId val="106898176"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="133810816"/>
+        <c:axId val="106556032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="40"/>
@@ -7948,21 +6556,11 @@
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr rot="0" vert="horz"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                  </a:defRPr>
+                  <a:defRPr/>
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
@@ -8006,31 +6604,21 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-60000000" vert="horz"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              </a:defRPr>
+              <a:defRPr/>
             </a:pPr>
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="133894912"/>
+        <c:crossAx val="106898176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="133894912"/>
+        <c:axId val="106898176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="30"/>
@@ -8051,29 +6639,15 @@
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr rot="-5400000" vert="horz"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                  </a:defRPr>
+                  <a:defRPr/>
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Runner</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> blades angle </a:t>
+                  <a:t>Runner blades angle </a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="ru-RU"/>
@@ -8081,11 +6655,7 @@
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>,</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> </a:t>
+                  <a:t>, </a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="ru-RU"/>
@@ -8098,8 +6668,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="2.3847922800939052E-2"/>
-              <c:y val="0.34017754270381462"/>
+              <c:x val="1.5783379900093136E-2"/>
+              <c:y val="0.24764727325750949"/>
             </c:manualLayout>
           </c:layout>
           <c:spPr>
@@ -8123,26 +6693,16 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-60000000" vert="horz"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              </a:defRPr>
+              <a:defRPr/>
             </a:pPr>
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="133810816"/>
+        <c:crossAx val="106556032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8156,6 +6716,30 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.61208897274937424"/>
+          <c:y val="0.62554571982849994"/>
+          <c:w val="0.28652853877136331"/>
+          <c:h val="0.17678985778951545"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
   </c:chart>
@@ -8174,7 +6758,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr sz="1200" cap="none" baseline="0">
+        <a:defRPr sz="1000" cap="none" baseline="0">
           <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
           <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
         </a:defRPr>
@@ -8184,7 +6768,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -8201,9 +6785,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="9.7328111267921388E-2"/>
-          <c:y val="2.6545130146313545E-2"/>
-          <c:w val="0.86515654924476637"/>
+          <c:x val="0.1094046417951749"/>
+          <c:y val="2.6545130146313562E-2"/>
+          <c:w val="0.85307987018112086"/>
           <c:h val="0.83713266471287207"/>
         </c:manualLayout>
       </c:layout>
@@ -8251,8 +6835,8 @@
               <c:idx val="5"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-2.3216890462311943E-2"/>
-                  <c:y val="1.1019286136805303E-2"/>
+                  <c:x val="-2.3216890462311957E-2"/>
+                  <c:y val="1.1019286136805299E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -8262,7 +6846,15 @@
                   <a:p>
                     <a:r>
                       <a:rPr lang="en-US"/>
-                      <a:t>a0=0.43</a:t>
+                      <a:t>A</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="-25000"/>
+                      <a:t>0</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>=43%</a:t>
                     </a:r>
                   </a:p>
                 </c:rich>
@@ -8586,7 +7178,15 @@
                   <a:p>
                     <a:r>
                       <a:rPr lang="en-US"/>
-                      <a:t>a0=0.625</a:t>
+                      <a:t>A</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="-25000"/>
+                      <a:t>0</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>=62.5%</a:t>
                     </a:r>
                   </a:p>
                 </c:rich>
@@ -8979,8 +7579,8 @@
               <c:idx val="13"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-3.1659396084970842E-2"/>
-                  <c:y val="4.4077144547221232E-2"/>
+                  <c:x val="-3.1659396084970863E-2"/>
+                  <c:y val="4.4077144547221267E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -8990,7 +7590,15 @@
                   <a:p>
                     <a:r>
                       <a:rPr lang="en-US"/>
-                      <a:t>a0=0.82</a:t>
+                      <a:t>A</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="-25000"/>
+                      <a:t>0</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>=82%</a:t>
                     </a:r>
                   </a:p>
                 </c:rich>
@@ -9466,11 +8074,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="133984256"/>
-        <c:axId val="133986176"/>
+        <c:axId val="107012864"/>
+        <c:axId val="107014784"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="133984256"/>
+        <c:axId val="107012864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.7"/>
@@ -9491,41 +8099,15 @@
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr rot="0" vert="horz"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                  </a:defRPr>
+                  <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" cap="none" baseline="0"/>
-                  <a:t>Pre-unit quantity speed n</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" cap="none" baseline="-25000"/>
-                  <a:t>1</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" cap="none" baseline="0"/>
-                  <a:t>'</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="ru-RU"/>
-                  <a:t>, о.</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="ru-RU" baseline="0"/>
-                  <a:t> е.</a:t>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Relative pre-unit quantity speed n1'/n1nom'</a:t>
                 </a:r>
                 <a:endParaRPr lang="ru-RU"/>
               </a:p>
@@ -9553,31 +8135,21 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-60000000" vert="horz"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              </a:defRPr>
+              <a:defRPr/>
             </a:pPr>
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="133986176"/>
+        <c:crossAx val="107014784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="133986176"/>
+        <c:axId val="107014784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.4"/>
@@ -9597,46 +8169,17 @@
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr rot="-5400000" vert="horz"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                  </a:defRPr>
+                  <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" cap="none" baseline="0"/>
-                  <a:t>Pre-unit quantity torque </a:t>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Pre-unit quantity torque m1'</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>m</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="-25000"/>
-                  <a:t>1</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>',</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> </a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="ru-RU"/>
-                  <a:t>о. е.</a:t>
-                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -9644,8 +8187,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="4.1976296261654394E-3"/>
-              <c:y val="0.29334554420631748"/>
+              <c:x val="1.7823945744609034E-3"/>
+              <c:y val="0.23623987474942437"/>
             </c:manualLayout>
           </c:layout>
           <c:spPr>
@@ -9669,26 +8212,16 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-60000000" vert="horz"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              </a:defRPr>
+              <a:defRPr/>
             </a:pPr>
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="133984256"/>
+        <c:crossAx val="107012864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9720,7 +8253,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr sz="1200" cap="none" baseline="0">
+        <a:defRPr sz="1000" cap="none" baseline="0">
           <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
           <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
         </a:defRPr>
@@ -9730,7 +8263,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000155" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000155" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -9747,1583 +8280,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.16070800851926162"/>
-          <c:y val="2.6545130146313555E-2"/>
+          <c:x val="0.16070800851926159"/>
+          <c:y val="2.6545130146313552E-2"/>
           <c:w val="0.80177652004123656"/>
-          <c:h val="0.83713266471287207"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'m1''=f(n1'')'!$A$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:alpha val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="3"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:ln w="38100">
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'m1''=f(n1'')'!$C$3:$I$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0.57722437536076521</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.65968500041230316</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.742145625463841</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.82460625051537895</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.90706687556691679</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.98952750061845474</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.0719881256699926</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'m1''=f(n1'')'!$C$2:$I$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'m1''=f(n1'')'!$A$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:alpha val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'m1''=f(n1'')'!$C$4:$I$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>-0.06</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-0.15232063782188515</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-0.24736117751732645</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-0.34512161908632383</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-0.4456019625288774</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-0.54880220784498712</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-0.65472235503465293</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'m1''=f(n1'')'!$C$2:$I$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'m1''=f(n1'')'!$A$11</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0.4375</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:alpha val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'m1''=f(n1'')'!$C$11:$I$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0.59085769299194391</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.57075510819132746</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.55038719287515236</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.51786460565641923</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.47843196957688366</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.43406640917892048</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.3889719051974711</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'m1''=f(n1'')'!$C$2:$I$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:v>макс</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="12700" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'m1''=f(n1'')'!$C$18:$I$18</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0.74769893625793682</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.7337130700090706</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.72885285945723888</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.7202713688506831</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.7086255095255316</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.69711213409751804</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.67848422818606069</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'m1''=f(n1'')'!$C$2:$I$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="10"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:v>мин</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="15875" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'m1''=f(n1'')'!$C$19:$I$19</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0.75751175063906984</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.74492771501607979</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.74146933509012414</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.73428967510944454</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.72404564641016922</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.71393410160803172</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.69670802632245055</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'m1''=f(n1'')'!$C$2:$I$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="11"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'m1''=f(n1'')'!$A$13</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0.5625</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:alpha val="0"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'m1''=f(n1'')'!$C$12:$I$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0.63563375416012546</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.62685854567674992</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.61096913541416797</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.58603268776946194</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.55516564392376566</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.51202781812145204</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.46452219305037867</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'m1''=f(n1'')'!$C$2:$I$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="14"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'m1''=f(n1'')'!$A$16</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0.75</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
-                  <a:alpha val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="3"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:ln w="38100">
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'m1''=f(n1'')'!$C$16:$I$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0.73345593243748752</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.71910823626492415</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.70438266155952545</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.69633243655681853</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.68450457640835294</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.66374140485068889</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.63764208899878816</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'m1''=f(n1'')'!$C$2:$I$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="13"/>
-          <c:order val="7"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'m1''=f(n1'')'!$K$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>-0.874722355</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="triangle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="2"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="3"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="4"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="5"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="6"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:r>
-                      <a:rPr lang="en-US"/>
-                      <a:t>H1</a:t>
-                    </a:r>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showVal val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="ru-RU"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="t"/>
-            <c:showVal val="1"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'m1''=f(n1'')'!$L$4:$T$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>-0.98880220784498718</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-1.1056019625288775</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-1.2251216190863241</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-1.3473611775173269</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-1.4723206378218856</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-1.6000000000000005</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-1.7249594603045593</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-1.847199018735562</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-1.9667186752930086</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'m1''=f(n1'')'!$L$2:$T$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="15"/>
-          <c:order val="8"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'m1''=f(n1'')'!$K$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>-0.391218775</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="triangle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="2"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="3"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="4"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="5"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="6"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:r>
-                      <a:rPr lang="en-US"/>
-                      <a:t>H2</a:t>
-                    </a:r>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showVal val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="ru-RU"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="t"/>
-            <c:showVal val="1"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'m1''=f(n1'')'!$L$5:$T$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>-0.4826532665705866</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-0.57408775810999613</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-0.66552224964940587</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-0.75695674118881551</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-0.84839123272822525</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-0.93982572426763489</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-1.0312602158070443</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-1.1226947073464544</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-1.2141291988858638</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'m1''=f(n1'')'!$L$2:$T$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="16"/>
-          <c:order val="9"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'m1''=f(n1'')'!$K$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>-0.255158744</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:prstDash val="sysDot"/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'m1''=f(n1'')'!$L$6:$T$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>-0.33752256647987988</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-0.41988638926362032</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-0.50225021204736087</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-0.5846140348311013</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-0.66697785761484185</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-0.74934168039858229</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-0.83170550318232273</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-0.91406932596606338</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-0.99643314874980382</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'m1''=f(n1'')'!$L$2:$T$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="18"/>
-          <c:order val="10"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'m1''=f(n1'')'!$K$8</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>-0.00406614</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:prstDash val="sysDot"/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'m1''=f(n1'')'!$L$8:$T$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>-6.9690456312484786E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-0.13531477221076307</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-0.20093908810904137</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-0.2665634040073197</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-0.33218771990559803</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-0.39781203580387631</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-0.46343635170215458</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-0.52906066760043291</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-0.59468498349871124</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'m1''=f(n1'')'!$L$2:$T$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="19"/>
-          <c:order val="11"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'m1''=f(n1'')'!$A$15</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0.6875</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:alpha val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'m1''=f(n1'')'!$C$15:$I$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0.72809748988962231</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.70841373903077587</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.69507464128690288</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.68816857010475885</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.67001984978040929</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.64354593322752429</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.61618265884539292</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'m1''=f(n1'')'!$C$2:$I$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="20"/>
-          <c:order val="12"/>
-          <c:tx>
-            <c:v>H=20.4</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="triangle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="2"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="3"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="4"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="5"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="6"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:r>
-                      <a:rPr lang="en-US"/>
-                      <a:t>H3</a:t>
-                    </a:r>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showVal val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="ru-RU"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="t"/>
-            <c:showVal val="1"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'m1''=f(n1'')'!$L$9:$T$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>4.2455993757606753E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-1.6159169011290817E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-7.4774331780188386E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-0.133389494549086</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-0.19200465731798358</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-0.25061982008688116</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-0.30923498285577872</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-0.36785014562467633</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-0.42646530839357388</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'m1''=f(n1'')'!$L$2:$T$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:axId val="134168960"/>
-        <c:axId val="134170880"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="134168960"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:min val="40"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="0" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Guide vanes position A</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="-25000"/>
-                  <a:t>0</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="ru-RU"/>
-                  <a:t>, </a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>%</a:t>
-                </a:r>
-                <a:endParaRPr lang="ru-RU"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="0" sourceLinked="0"/>
-        <c:minorTickMark val="out"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="12700">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="134170880"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="134170880"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="30"/>
-          <c:min val="5"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Runner</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> blades angle </a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="ru-RU"/>
-                  <a:t>Ѱ</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>,</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> </a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="ru-RU"/>
-                  <a:t>°</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="2.3847922800939052E-2"/>
-              <c:y val="0.34017754270381462"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="0" sourceLinked="0"/>
-        <c:minorTickMark val="out"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="12700">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="134168960"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:sysClr val="window" lastClr="FFFFFF"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:noFill/>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr sz="1200" cap="none" baseline="0">
-          <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-          <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-        </a:defRPr>
-      </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="ru-RU"/>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.16070800851926151"/>
-          <c:y val="2.6545130146313524E-2"/>
-          <c:w val="0.8017765200412369"/>
           <c:h val="0.83713266471287207"/>
         </c:manualLayout>
       </c:layout>
@@ -12789,11 +9748,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="134323584"/>
-        <c:axId val="134444544"/>
+        <c:axId val="107360640"/>
+        <c:axId val="107362560"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="134323584"/>
+        <c:axId val="107360640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="30"/>
@@ -12905,12 +9864,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="134444544"/>
+        <c:crossAx val="107362560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="134444544"/>
+        <c:axId val="107362560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="85"/>
@@ -13029,7 +9988,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="134323584"/>
+        <c:crossAx val="107360640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -13078,13 +10037,13 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="ru-RU"/>
   <c:chart>
@@ -13095,9 +10054,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.16070800851926151"/>
-          <c:y val="2.6545130146313524E-2"/>
-          <c:w val="0.8017765200412369"/>
+          <c:x val="0.16070800851926159"/>
+          <c:y val="2.6545130146313552E-2"/>
+          <c:w val="0.80177652004123656"/>
           <c:h val="0.83713266471287207"/>
         </c:manualLayout>
       </c:layout>
@@ -14269,7 +11228,7 @@
               <c:layout>
                 <c:manualLayout>
                   <c:x val="-7.2927129914161101E-2"/>
-                  <c:y val="-2.2587205480935076E-2"/>
+                  <c:y val="-2.2587205480935103E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -14595,11 +11554,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="134633728"/>
-        <c:axId val="134648192"/>
+        <c:axId val="107510784"/>
+        <c:axId val="107619456"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="134633728"/>
+        <c:axId val="107510784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="80"/>
@@ -14712,12 +11671,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="134648192"/>
+        <c:crossAx val="107619456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="134648192"/>
+        <c:axId val="107619456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="29"/>
@@ -14828,7 +11787,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="134633728"/>
+        <c:crossAx val="107510784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -14877,8 +11836,553 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="ru-RU"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10790758285022518"/>
+          <c:y val="3.4599087798582839E-2"/>
+          <c:w val="0.86137980838485606"/>
+          <c:h val="0.86677415622172493"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Model (manufacturer)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:srgbClr val="0070C0"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'[1]Приведение к 18,09 м'!$C$33:$C$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>34.220041811846691</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44.861114982578393</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>51.715101045296166</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>58.309860627177699</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>64.008515679442496</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>72.020808362369351</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>78.562696864111501</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'[1]Приведение к 18,09 м'!$B$33:$B$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>16.507813894377861</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27.458010525027298</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>36.490715693771463</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>46.826464963315161</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>56.71740323221136</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>68.305878957044115</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>79.32851494986798</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Winter-Kennedy</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400">
+              <a:solidFill>
+                <a:srgbClr val="09E11E"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:srgbClr val="09E11E"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'[1]Приведение к 18,09 м'!$F$14:$F$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>46.034843205574916</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>48.984668989547039</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>51.386759581881535</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>53.73937282229965</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>56.417421602787464</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>58.986062717770039</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>63.466898954703836</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>68.275261324041807</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>72.648083623693381</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>77.348432055749129</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'[1]Приведение к 18,09 м'!$C$14:$C$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>29.35</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>33.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>36.75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44.15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>47.9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>54.43</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>61.45</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>67.78</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>74.849999999999994</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Exp. Equal power method</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400">
+              <a:solidFill>
+                <a:srgbClr val="F20000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:srgbClr val="F20000"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'[1]Приведение к 18,09 м'!$T$4:$T$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>35.43</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44.93</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>46.94</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>51.19</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>57.57</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64.732799999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>67.968999999999994</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'[1]Приведение к 18,09 м'!$G$4:$G$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>17.911787104466743</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26.971510344125903</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>31.722535975590759</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>36.42388543901037</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>46.063904490717725</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>55.315895685615857</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60.483373936779991</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:axId val="107657088"/>
+        <c:axId val="107663744"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="107657088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="80"/>
+          <c:min val="30"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="1"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="1"/>
+                  <a:t>Guide vanes position A</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" b="1" baseline="-25000"/>
+                  <a:t>0</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" b="1"/>
+                  <a:t>, </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" b="1"/>
+                  <a:t>%</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU" b="1"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.39405433592565547"/>
+              <c:y val="0.94774529073607738"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:minorTickMark val="out"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" vert="horz"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="107663744"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="107663744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="80"/>
+          <c:min val="15"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="1"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="1"/>
+                  <a:t>Cam related power, MWt</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU" b="1"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="2.8504520388454812E-2"/>
+              <c:y val="0.30270651092600664"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:minorTickMark val="out"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" vert="horz"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="107657088"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="10"/>
+      </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.14633993705681969"/>
+          <c:y val="0.16085143620295356"/>
+          <c:w val="0.49893450684809981"/>
+          <c:h val="0.16514063908741292"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="FFFFFF"/>
+    </a:solidFill>
+    <a:ln w="3175">
+      <a:noFill/>
+      <a:prstDash val="solid"/>
+    </a:ln>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+          <a:ea typeface="Arial Cyr"/>
+          <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter alignWithMargins="0"/>
+    <c:pageMargins b="1" l="0.75000000000000056" r="0.75000000000000056" t="1" header="0.5" footer="0.5"/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -18367,13 +15871,13 @@
       <xdr:col>10</xdr:col>
       <xdr:colOff>361950</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>114299</xdr:rowOff>
+      <xdr:rowOff>114301</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>142874</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -18407,10 +15911,10 @@
       <xdr:rowOff>69476</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>392205</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>107575</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>8283</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -18426,38 +15930,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>3361</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>13446</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>475129</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>42021</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Диаграмма 2"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -18550,8 +16022,8 @@
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>364435</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>561974</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>24849</xdr:rowOff>
     </xdr:to>
@@ -18561,6 +16033,78 @@
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>438149</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 3"/>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -18790,6 +16334,142 @@
       </sheetData>
       <sheetData sheetId="5"/>
       <sheetData sheetId="6"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Открытие ХХ"/>
+      <sheetName val="Стат. НА"/>
+      <sheetName val="стат. РК"/>
+      <sheetName val="Расходная НА"/>
+      <sheetName val="Расходная РК"/>
+      <sheetName val="Стат. частота СУХАЯ"/>
+      <sheetName val="Стат. частота ОС P"/>
+      <sheetName val="Стат. частота без ОС P"/>
+      <sheetName val="Комбинатор"/>
+      <sheetName val="Расход и Hk"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9">
+        <row r="1">
+          <cell r="D1" t="str">
+            <v>Q, м3/с</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="C2">
+            <v>20</v>
+          </cell>
+          <cell r="D2">
+            <v>133</v>
+          </cell>
+          <cell r="E2">
+            <v>17.600000000000001</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="C3">
+            <v>25</v>
+          </cell>
+          <cell r="D3">
+            <v>162</v>
+          </cell>
+          <cell r="E3">
+            <v>17.45</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="C4">
+            <v>30</v>
+          </cell>
+          <cell r="D4">
+            <v>192</v>
+          </cell>
+          <cell r="E4">
+            <v>17.45</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="C5">
+            <v>35</v>
+          </cell>
+          <cell r="D5">
+            <v>224</v>
+          </cell>
+          <cell r="E5">
+            <v>17.38</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="C6">
+            <v>40</v>
+          </cell>
+          <cell r="D6">
+            <v>259</v>
+          </cell>
+          <cell r="E6">
+            <v>17.11</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="C7">
+            <v>45</v>
+          </cell>
+          <cell r="D7">
+            <v>296</v>
+          </cell>
+          <cell r="E7">
+            <v>16.97</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="C8">
+            <v>50</v>
+          </cell>
+          <cell r="D8">
+            <v>330</v>
+          </cell>
+          <cell r="E8">
+            <v>16.86</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="C9">
+            <v>55</v>
+          </cell>
+          <cell r="D9">
+            <v>373</v>
+          </cell>
+          <cell r="E9">
+            <v>16.61</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="C10">
+            <v>60</v>
+          </cell>
+          <cell r="D10">
+            <v>415</v>
+          </cell>
+          <cell r="E10">
+            <v>16.36</v>
+          </cell>
+        </row>
+      </sheetData>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -19255,7 +16935,7 @@
     <row r="10" spans="1:14">
       <c r="A10" s="3">
         <f t="shared" ref="A10:A20" ca="1" si="3">RANDBETWEEN(D10-1,D10+1)/1000</f>
-        <v>0.2</v>
+        <v>0.20100000000000001</v>
       </c>
       <c r="B10" s="3">
         <v>10</v>
@@ -19302,7 +16982,7 @@
     <row r="12" spans="1:14">
       <c r="A12" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>0.2</v>
+        <v>0.19900000000000001</v>
       </c>
       <c r="B12" s="3">
         <f t="shared" ref="B12:B75" si="4">B11+0.2</f>
@@ -19326,7 +17006,7 @@
     <row r="13" spans="1:14">
       <c r="A13" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>0.20100000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="B13" s="3">
         <f t="shared" si="4"/>
@@ -19350,7 +17030,7 @@
     <row r="14" spans="1:14">
       <c r="A14" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>0.2</v>
+        <v>0.19900000000000001</v>
       </c>
       <c r="B14" s="3">
         <f t="shared" si="4"/>
@@ -19374,7 +17054,7 @@
     <row r="15" spans="1:14">
       <c r="A15" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>0.20100000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="B15" s="3">
         <f t="shared" si="4"/>
@@ -19398,7 +17078,7 @@
     <row r="16" spans="1:14">
       <c r="A16" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>0.2</v>
+        <v>0.19900000000000001</v>
       </c>
       <c r="B16" s="3">
         <f t="shared" si="4"/>
@@ -19470,7 +17150,7 @@
     <row r="19" spans="1:6">
       <c r="A19" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>0.2</v>
+        <v>0.19900000000000001</v>
       </c>
       <c r="B19" s="3">
         <f t="shared" si="4"/>
@@ -19494,7 +17174,7 @@
     <row r="20" spans="1:6">
       <c r="A20" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>0.20100000000000001</v>
+        <v>0.19900000000000001</v>
       </c>
       <c r="B20" s="3">
         <f t="shared" si="4"/>
@@ -19638,7 +17318,7 @@
     <row r="26" spans="1:6">
       <c r="A26" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>0.2</v>
+        <v>0.19900000000000001</v>
       </c>
       <c r="B26" s="3">
         <f t="shared" si="4"/>
@@ -19662,7 +17342,7 @@
     <row r="27" spans="1:6">
       <c r="A27" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>0.19900000000000001</v>
+        <v>0.20100000000000001</v>
       </c>
       <c r="B27" s="3">
         <f t="shared" si="4"/>
@@ -19686,7 +17366,7 @@
     <row r="28" spans="1:6">
       <c r="A28" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>0.20100000000000001</v>
+        <v>0.19900000000000001</v>
       </c>
       <c r="B28" s="3">
         <f t="shared" si="4"/>
@@ -19710,7 +17390,7 @@
     <row r="29" spans="1:6">
       <c r="A29" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>0.19900000000000001</v>
+        <v>0.20100000000000001</v>
       </c>
       <c r="B29" s="3">
         <f t="shared" si="4"/>
@@ -19830,7 +17510,7 @@
     <row r="34" spans="1:6">
       <c r="A34" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>0.2</v>
+        <v>0.19900000000000001</v>
       </c>
       <c r="B34" s="3">
         <f t="shared" si="4"/>
@@ -19854,7 +17534,7 @@
     <row r="35" spans="1:6">
       <c r="A35" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>0.2</v>
+        <v>0.19900000000000001</v>
       </c>
       <c r="B35" s="3">
         <f t="shared" si="4"/>
@@ -19878,7 +17558,7 @@
     <row r="36" spans="1:6">
       <c r="A36" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>0.20100000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="B36" s="3">
         <f t="shared" si="4"/>
@@ -19902,7 +17582,7 @@
     <row r="37" spans="1:6">
       <c r="A37" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>0.20100000000000001</v>
+        <v>0.19900000000000001</v>
       </c>
       <c r="B37" s="3">
         <f t="shared" si="4"/>
@@ -19974,7 +17654,7 @@
     <row r="40" spans="1:6">
       <c r="A40" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>0.2</v>
+        <v>0.20100000000000001</v>
       </c>
       <c r="B40" s="3">
         <f t="shared" si="4"/>
@@ -20070,7 +17750,7 @@
     <row r="44" spans="1:6">
       <c r="A44" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>0.2</v>
+        <v>0.19900000000000001</v>
       </c>
       <c r="B44" s="3">
         <f t="shared" si="4"/>
@@ -20118,7 +17798,7 @@
     <row r="46" spans="1:6">
       <c r="A46" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>0.19900000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="B46" s="3">
         <f t="shared" si="4"/>
@@ -20190,7 +17870,7 @@
     <row r="49" spans="1:6">
       <c r="A49" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>0.20100000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="B49" s="3">
         <f t="shared" si="4"/>
@@ -20214,7 +17894,7 @@
     <row r="50" spans="1:6">
       <c r="A50" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>0.2</v>
+        <v>0.20100000000000001</v>
       </c>
       <c r="B50" s="3">
         <f t="shared" si="4"/>
@@ -20238,7 +17918,7 @@
     <row r="51" spans="1:6">
       <c r="A51" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>0.2</v>
+        <v>0.20100000000000001</v>
       </c>
       <c r="B51" s="3">
         <f t="shared" si="4"/>
@@ -20286,7 +17966,7 @@
     <row r="53" spans="1:6">
       <c r="A53" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>0.2</v>
+        <v>0.20100000000000001</v>
       </c>
       <c r="B53" s="3">
         <f t="shared" si="4"/>
@@ -20334,7 +18014,7 @@
     <row r="55" spans="1:6">
       <c r="A55" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>0.19900000000000001</v>
+        <v>0.20100000000000001</v>
       </c>
       <c r="B55" s="3">
         <f t="shared" si="4"/>
@@ -20358,7 +18038,7 @@
     <row r="56" spans="1:6">
       <c r="A56" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>0.19900000000000001</v>
+        <v>0.20100000000000001</v>
       </c>
       <c r="B56" s="3">
         <f t="shared" si="4"/>
@@ -20371,7 +18051,7 @@
     <row r="57" spans="1:6">
       <c r="A57" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>0.2</v>
+        <v>0.20100000000000001</v>
       </c>
       <c r="B57" s="3">
         <f t="shared" si="4"/>
@@ -20384,7 +18064,7 @@
     <row r="58" spans="1:6">
       <c r="A58" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>0.2</v>
+        <v>0.19900000000000001</v>
       </c>
       <c r="B58" s="3">
         <f t="shared" si="4"/>
@@ -20410,7 +18090,7 @@
     <row r="60" spans="1:6">
       <c r="A60" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>0.19800000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="B60" s="3">
         <f t="shared" si="4"/>
@@ -20423,7 +18103,7 @@
     <row r="61" spans="1:6">
       <c r="A61" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>0.19800000000000001</v>
+        <v>0.19700000000000001</v>
       </c>
       <c r="B61" s="3">
         <f t="shared" si="4"/>
@@ -20449,7 +18129,7 @@
     <row r="63" spans="1:6">
       <c r="A63" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>0.19600000000000001</v>
+        <v>0.19700000000000001</v>
       </c>
       <c r="B63" s="3">
         <f t="shared" si="4"/>
@@ -20462,7 +18142,7 @@
     <row r="64" spans="1:6">
       <c r="A64" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>0.19900000000000001</v>
+        <v>0.19800000000000001</v>
       </c>
       <c r="B64" s="3">
         <f t="shared" si="4"/>
@@ -20475,7 +18155,7 @@
     <row r="65" spans="1:4">
       <c r="A65" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>0.19800000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="B65" s="3">
         <f t="shared" si="4"/>
@@ -20488,7 +18168,7 @@
     <row r="66" spans="1:4">
       <c r="A66" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>0.20100000000000001</v>
+        <v>0.19900000000000001</v>
       </c>
       <c r="B66" s="3">
         <f t="shared" si="4"/>
@@ -20515,7 +18195,7 @@
     <row r="68" spans="1:4">
       <c r="A68" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>0.2</v>
+        <v>0.20100000000000001</v>
       </c>
       <c r="B68" s="3">
         <f t="shared" si="4"/>
@@ -20557,7 +18237,7 @@
     <row r="71" spans="1:4">
       <c r="A71" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>0.20100000000000001</v>
+        <v>0.20200000000000001</v>
       </c>
       <c r="B71" s="3">
         <f t="shared" si="4"/>
@@ -20571,7 +18251,7 @@
     <row r="72" spans="1:4">
       <c r="A72" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>0.20100000000000001</v>
+        <v>0.20200000000000001</v>
       </c>
       <c r="B72" s="3">
         <f t="shared" si="4"/>
@@ -20585,7 +18265,7 @@
     <row r="73" spans="1:4">
       <c r="A73" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>0.20300000000000001</v>
+        <v>0.20200000000000001</v>
       </c>
       <c r="B73" s="3">
         <f t="shared" si="4"/>
@@ -20655,7 +18335,7 @@
     <row r="78" spans="1:4">
       <c r="A78" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>0.20399999999999999</v>
+        <v>0.20300000000000001</v>
       </c>
       <c r="B78" s="3">
         <f t="shared" si="7"/>
@@ -20669,7 +18349,7 @@
     <row r="79" spans="1:4">
       <c r="A79" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>0.20399999999999999</v>
+        <v>0.20300000000000001</v>
       </c>
       <c r="B79" s="3">
         <f t="shared" si="7"/>
@@ -20683,7 +18363,7 @@
     <row r="80" spans="1:4">
       <c r="A80" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>0.20499999999999999</v>
+        <v>0.20399999999999999</v>
       </c>
       <c r="B80" s="3">
         <f t="shared" si="7"/>
@@ -20767,7 +18447,7 @@
     <row r="86" spans="1:4">
       <c r="A86" s="3">
         <f t="shared" ca="1" si="8"/>
-        <v>0.20699999999999999</v>
+        <v>0.20599999999999999</v>
       </c>
       <c r="B86" s="3">
         <f t="shared" si="7"/>
@@ -20781,7 +18461,7 @@
     <row r="87" spans="1:4">
       <c r="A87" s="3">
         <f t="shared" ca="1" si="8"/>
-        <v>0.20599999999999999</v>
+        <v>0.20699999999999999</v>
       </c>
       <c r="B87" s="3">
         <f t="shared" si="7"/>
@@ -20795,7 +18475,7 @@
     <row r="88" spans="1:4">
       <c r="A88" s="3">
         <f t="shared" ca="1" si="8"/>
-        <v>0.20699999999999999</v>
+        <v>0.20599999999999999</v>
       </c>
       <c r="B88" s="3">
         <f t="shared" si="7"/>
@@ -20809,7 +18489,7 @@
     <row r="89" spans="1:4">
       <c r="A89" s="3">
         <f t="shared" ca="1" si="8"/>
-        <v>0.20699999999999999</v>
+        <v>0.20599999999999999</v>
       </c>
       <c r="B89" s="3">
         <f t="shared" si="7"/>
@@ -20823,7 +18503,7 @@
     <row r="90" spans="1:4">
       <c r="A90" s="3">
         <f t="shared" ca="1" si="8"/>
-        <v>0.20699999999999999</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="B90" s="3">
         <f t="shared" si="7"/>
@@ -20837,7 +18517,7 @@
     <row r="91" spans="1:4">
       <c r="A91" s="3">
         <f t="shared" ca="1" si="8"/>
-        <v>0.20699999999999999</v>
+        <v>0.20899999999999999</v>
       </c>
       <c r="B91" s="3">
         <f t="shared" si="7"/>
@@ -20850,7 +18530,7 @@
     <row r="92" spans="1:4">
       <c r="A92" s="3">
         <f t="shared" ca="1" si="8"/>
-        <v>0.21</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="B92" s="3">
         <f t="shared" si="7"/>
@@ -20876,7 +18556,7 @@
     <row r="94" spans="1:4">
       <c r="A94" s="3">
         <f t="shared" ca="1" si="8"/>
-        <v>0.21</v>
+        <v>0.20899999999999999</v>
       </c>
       <c r="B94" s="3">
         <f t="shared" si="7"/>
@@ -20889,7 +18569,7 @@
     <row r="95" spans="1:4">
       <c r="A95" s="3">
         <f t="shared" ca="1" si="8"/>
-        <v>0.20799999999999999</v>
+        <v>0.20899999999999999</v>
       </c>
       <c r="B95" s="3">
         <f t="shared" si="7"/>
@@ -20915,7 +18595,7 @@
     <row r="97" spans="1:4">
       <c r="A97" s="3">
         <f t="shared" ca="1" si="8"/>
-        <v>0.20599999999999999</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="B97" s="3">
         <f t="shared" si="7"/>
@@ -20928,7 +18608,7 @@
     <row r="98" spans="1:4">
       <c r="A98" s="3">
         <f t="shared" ca="1" si="8"/>
-        <v>0.20799999999999999</v>
+        <v>0.20699999999999999</v>
       </c>
       <c r="B98" s="3">
         <f t="shared" si="7"/>
@@ -20954,7 +18634,7 @@
     <row r="100" spans="1:4">
       <c r="A100" s="3">
         <f t="shared" ca="1" si="8"/>
-        <v>0.20699999999999999</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="B100" s="3">
         <f t="shared" si="7"/>
@@ -20980,7 +18660,7 @@
     <row r="102" spans="1:4">
       <c r="A102" s="3">
         <f t="shared" ca="1" si="8"/>
-        <v>0.20599999999999999</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="B102" s="3">
         <f t="shared" si="7"/>
@@ -20993,7 +18673,7 @@
     <row r="103" spans="1:4">
       <c r="A103" s="3">
         <f t="shared" ca="1" si="8"/>
-        <v>0.20799999999999999</v>
+        <v>0.20599999999999999</v>
       </c>
       <c r="B103" s="3">
         <f t="shared" si="7"/>
@@ -21006,7 +18686,7 @@
     <row r="104" spans="1:4">
       <c r="A104" s="3">
         <f t="shared" ca="1" si="8"/>
-        <v>0.20599999999999999</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="B104" s="3">
         <f t="shared" si="7"/>
@@ -21032,7 +18712,7 @@
     <row r="106" spans="1:4">
       <c r="A106" s="3">
         <f t="shared" ca="1" si="8"/>
-        <v>0.20599999999999999</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="B106" s="3">
         <f t="shared" si="7"/>
@@ -21045,7 +18725,7 @@
     <row r="107" spans="1:4">
       <c r="A107" s="3">
         <f t="shared" ca="1" si="8"/>
-        <v>0.20799999999999999</v>
+        <v>0.20699999999999999</v>
       </c>
       <c r="B107" s="3">
         <f t="shared" si="7"/>
@@ -21071,7 +18751,7 @@
     <row r="109" spans="1:4">
       <c r="A109" s="3">
         <f t="shared" ca="1" si="8"/>
-        <v>0.20699999999999999</v>
+        <v>0.20599999999999999</v>
       </c>
       <c r="B109" s="3">
         <f t="shared" si="7"/>
@@ -21084,7 +18764,7 @@
     <row r="110" spans="1:4">
       <c r="A110" s="3">
         <f t="shared" ca="1" si="8"/>
-        <v>0.20599999999999999</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="B110" s="3">
         <f t="shared" si="7"/>
@@ -21097,7 +18777,7 @@
     <row r="111" spans="1:4">
       <c r="A111" s="3">
         <f t="shared" ca="1" si="8"/>
-        <v>0.20799999999999999</v>
+        <v>0.20699999999999999</v>
       </c>
       <c r="B111" s="3">
         <f t="shared" si="7"/>
@@ -21110,7 +18790,7 @@
     <row r="112" spans="1:4">
       <c r="A112" s="3">
         <f t="shared" ca="1" si="8"/>
-        <v>0.20599999999999999</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="B112" s="3">
         <f t="shared" si="7"/>
@@ -21123,7 +18803,7 @@
     <row r="113" spans="1:4">
       <c r="A113" s="3">
         <f t="shared" ca="1" si="8"/>
-        <v>0.20699999999999999</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="B113" s="3">
         <f t="shared" si="7"/>
@@ -21175,7 +18855,7 @@
     <row r="117" spans="1:4">
       <c r="A117" s="3">
         <f t="shared" ca="1" si="8"/>
-        <v>0.20799999999999999</v>
+        <v>0.20599999999999999</v>
       </c>
       <c r="B117" s="3">
         <f t="shared" si="7"/>
@@ -21201,7 +18881,7 @@
     <row r="119" spans="1:4">
       <c r="A119" s="3">
         <f t="shared" ca="1" si="8"/>
-        <v>0.20799999999999999</v>
+        <v>0.20599999999999999</v>
       </c>
       <c r="B119" s="3">
         <f t="shared" si="7"/>
@@ -21227,7 +18907,7 @@
     <row r="121" spans="1:4">
       <c r="A121" s="3">
         <f t="shared" ca="1" si="8"/>
-        <v>0.20599999999999999</v>
+        <v>0.20699999999999999</v>
       </c>
       <c r="B121" s="3">
         <f t="shared" si="7"/>
@@ -21240,7 +18920,7 @@
     <row r="122" spans="1:4">
       <c r="A122" s="3">
         <f t="shared" ca="1" si="8"/>
-        <v>0.20599999999999999</v>
+        <v>0.20699999999999999</v>
       </c>
       <c r="B122" s="3">
         <f t="shared" si="7"/>
@@ -21253,7 +18933,7 @@
     <row r="123" spans="1:4">
       <c r="A123" s="3">
         <f t="shared" ca="1" si="8"/>
-        <v>0.20799999999999999</v>
+        <v>0.20699999999999999</v>
       </c>
       <c r="B123" s="3">
         <f t="shared" si="7"/>
@@ -21292,7 +18972,7 @@
     <row r="126" spans="1:4">
       <c r="A126" s="3">
         <f t="shared" ca="1" si="8"/>
-        <v>0.20599999999999999</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="B126" s="3">
         <f t="shared" si="7"/>
@@ -21305,7 +18985,7 @@
     <row r="127" spans="1:4">
       <c r="A127" s="3">
         <f t="shared" ca="1" si="8"/>
-        <v>0.20599999999999999</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="B127" s="3">
         <f t="shared" si="7"/>
@@ -21318,7 +18998,7 @@
     <row r="128" spans="1:4">
       <c r="A128" s="3">
         <f t="shared" ca="1" si="8"/>
-        <v>0.20799999999999999</v>
+        <v>0.20599999999999999</v>
       </c>
       <c r="B128" s="3">
         <f t="shared" si="7"/>
@@ -21331,7 +19011,7 @@
     <row r="129" spans="1:4">
       <c r="A129" s="3">
         <f t="shared" ca="1" si="8"/>
-        <v>0.20599999999999999</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="B129" s="3">
         <f t="shared" si="7"/>
@@ -21344,7 +19024,7 @@
     <row r="130" spans="1:4">
       <c r="A130" s="3">
         <f t="shared" ca="1" si="8"/>
-        <v>0.20699999999999999</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="B130" s="3">
         <f t="shared" si="7"/>
@@ -21370,7 +19050,7 @@
     <row r="132" spans="1:4">
       <c r="A132" s="3">
         <f t="shared" ca="1" si="8"/>
-        <v>0.20699999999999999</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="B132" s="3">
         <f t="shared" si="7"/>
@@ -21409,7 +19089,7 @@
     <row r="135" spans="1:4">
       <c r="A135" s="3">
         <f t="shared" ca="1" si="8"/>
-        <v>0.20799999999999999</v>
+        <v>0.20699999999999999</v>
       </c>
       <c r="B135" s="3">
         <f t="shared" si="7"/>
@@ -21422,7 +19102,7 @@
     <row r="136" spans="1:4">
       <c r="A136" s="3">
         <f t="shared" ca="1" si="8"/>
-        <v>0.20799999999999999</v>
+        <v>0.20699999999999999</v>
       </c>
       <c r="B136" s="3">
         <f t="shared" si="7"/>
@@ -21435,7 +19115,7 @@
     <row r="137" spans="1:4">
       <c r="A137" s="3">
         <f t="shared" ca="1" si="8"/>
-        <v>0.20799999999999999</v>
+        <v>0.20699999999999999</v>
       </c>
       <c r="B137" s="3">
         <f t="shared" si="7"/>
@@ -21448,7 +19128,7 @@
     <row r="138" spans="1:4">
       <c r="A138" s="3">
         <f t="shared" ca="1" si="8"/>
-        <v>0.20699999999999999</v>
+        <v>0.20599999999999999</v>
       </c>
       <c r="B138" s="3">
         <f t="shared" si="7"/>
@@ -21461,7 +19141,7 @@
     <row r="139" spans="1:4">
       <c r="A139" s="3">
         <f t="shared" ca="1" si="8"/>
-        <v>0.20799999999999999</v>
+        <v>0.20699999999999999</v>
       </c>
       <c r="B139" s="3">
         <f t="shared" si="7"/>
@@ -21474,7 +19154,7 @@
     <row r="140" spans="1:4">
       <c r="A140" s="3">
         <f t="shared" ca="1" si="8"/>
-        <v>0.20799999999999999</v>
+        <v>0.20599999999999999</v>
       </c>
       <c r="B140" s="3">
         <f t="shared" ref="B140:B203" si="9">B139+0.2</f>
@@ -21487,7 +19167,7 @@
     <row r="141" spans="1:4">
       <c r="A141" s="3">
         <f t="shared" ca="1" si="8"/>
-        <v>0.20699999999999999</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="B141" s="3">
         <f t="shared" si="9"/>
@@ -21513,7 +19193,7 @@
     <row r="143" spans="1:4">
       <c r="A143" s="3">
         <f t="shared" ca="1" si="8"/>
-        <v>0.20799999999999999</v>
+        <v>0.20599999999999999</v>
       </c>
       <c r="B143" s="3">
         <f t="shared" si="9"/>
@@ -21539,7 +19219,7 @@
     <row r="145" spans="1:4">
       <c r="A145" s="3">
         <f t="shared" ca="1" si="8"/>
-        <v>0.20599999999999999</v>
+        <v>0.20699999999999999</v>
       </c>
       <c r="B145" s="3">
         <f t="shared" si="9"/>
@@ -21591,7 +19271,7 @@
     <row r="149" spans="1:4">
       <c r="A149" s="3">
         <f t="shared" ref="A149:A212" ca="1" si="10">RANDBETWEEN(D149-1,D149+1)/1000</f>
-        <v>0.20699999999999999</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="B149" s="3">
         <f t="shared" si="9"/>
@@ -21617,7 +19297,7 @@
     <row r="151" spans="1:4">
       <c r="A151" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>0.20799999999999999</v>
+        <v>0.20599999999999999</v>
       </c>
       <c r="B151" s="3">
         <f t="shared" si="9"/>
@@ -21630,7 +19310,7 @@
     <row r="152" spans="1:4">
       <c r="A152" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>0.20599999999999999</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="B152" s="3">
         <f t="shared" si="9"/>
@@ -21656,7 +19336,7 @@
     <row r="154" spans="1:4">
       <c r="A154" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>0.20799999999999999</v>
+        <v>0.20699999999999999</v>
       </c>
       <c r="B154" s="3">
         <f t="shared" si="9"/>
@@ -21695,7 +19375,7 @@
     <row r="157" spans="1:4">
       <c r="A157" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>0.20699999999999999</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="B157" s="3">
         <f t="shared" si="9"/>
@@ -21708,7 +19388,7 @@
     <row r="158" spans="1:4">
       <c r="A158" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>0.20699999999999999</v>
+        <v>0.20599999999999999</v>
       </c>
       <c r="B158" s="3">
         <f t="shared" si="9"/>
@@ -21721,7 +19401,7 @@
     <row r="159" spans="1:4">
       <c r="A159" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>0.20599999999999999</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="B159" s="3">
         <f t="shared" si="9"/>
@@ -21760,7 +19440,7 @@
     <row r="162" spans="1:4">
       <c r="A162" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>0.21</v>
+        <v>0.20899999999999999</v>
       </c>
       <c r="B162" s="3">
         <f t="shared" si="9"/>
@@ -21773,7 +19453,7 @@
     <row r="163" spans="1:4">
       <c r="A163" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>0.20799999999999999</v>
+        <v>0.20899999999999999</v>
       </c>
       <c r="B163" s="3">
         <f t="shared" si="9"/>
@@ -21786,7 +19466,7 @@
     <row r="164" spans="1:4">
       <c r="A164" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>0.20899999999999999</v>
+        <v>0.21</v>
       </c>
       <c r="B164" s="3">
         <f t="shared" si="9"/>
@@ -21812,7 +19492,7 @@
     <row r="166" spans="1:4">
       <c r="A166" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>0.20899999999999999</v>
+        <v>0.21</v>
       </c>
       <c r="B166" s="3">
         <f t="shared" si="9"/>
@@ -21825,7 +19505,7 @@
     <row r="167" spans="1:4">
       <c r="A167" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>0.21</v>
+        <v>0.20899999999999999</v>
       </c>
       <c r="B167" s="3">
         <f t="shared" si="9"/>
@@ -21838,7 +19518,7 @@
     <row r="168" spans="1:4">
       <c r="A168" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>0.20799999999999999</v>
+        <v>0.20699999999999999</v>
       </c>
       <c r="B168" s="3">
         <f t="shared" si="9"/>
@@ -21851,7 +19531,7 @@
     <row r="169" spans="1:4">
       <c r="A169" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>0.20699999999999999</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="B169" s="3">
         <f t="shared" si="9"/>
@@ -21920,7 +19600,7 @@
     <row r="174" spans="1:4">
       <c r="A174" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>0.20599999999999999</v>
+        <v>0.20499999999999999</v>
       </c>
       <c r="B174" s="3">
         <f t="shared" si="9"/>
@@ -21962,7 +19642,7 @@
     <row r="177" spans="1:4">
       <c r="A177" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>0.20399999999999999</v>
+        <v>0.20499999999999999</v>
       </c>
       <c r="B177" s="3">
         <f t="shared" si="9"/>
@@ -21976,7 +19656,7 @@
     <row r="178" spans="1:4">
       <c r="A178" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>0.20499999999999999</v>
+        <v>0.20399999999999999</v>
       </c>
       <c r="B178" s="3">
         <f t="shared" si="9"/>
@@ -22046,7 +19726,7 @@
     <row r="183" spans="1:4">
       <c r="A183" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>0.20300000000000001</v>
+        <v>0.20200000000000001</v>
       </c>
       <c r="B183" s="3">
         <f t="shared" si="9"/>
@@ -22074,7 +19754,7 @@
     <row r="185" spans="1:4">
       <c r="A185" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>0.20300000000000001</v>
+        <v>0.20200000000000001</v>
       </c>
       <c r="B185" s="3">
         <f t="shared" si="9"/>
@@ -22102,7 +19782,7 @@
     <row r="187" spans="1:4">
       <c r="A187" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>0.20200000000000001</v>
+        <v>0.20100000000000001</v>
       </c>
       <c r="B187" s="3">
         <f t="shared" si="9"/>
@@ -22116,7 +19796,7 @@
     <row r="188" spans="1:4">
       <c r="A188" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>0.20100000000000001</v>
+        <v>0.20200000000000001</v>
       </c>
       <c r="B188" s="3">
         <f t="shared" si="9"/>
@@ -22144,7 +19824,7 @@
     <row r="190" spans="1:4">
       <c r="A190" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>0.20100000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="B190" s="3">
         <f t="shared" si="9"/>
@@ -22158,7 +19838,7 @@
     <row r="191" spans="1:4">
       <c r="A191" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>0.20100000000000001</v>
+        <v>0.19900000000000001</v>
       </c>
       <c r="B191" s="3">
         <f t="shared" si="9"/>
@@ -22171,7 +19851,7 @@
     <row r="192" spans="1:4">
       <c r="A192" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>0.19900000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="B192" s="3">
         <f t="shared" si="9"/>
@@ -22184,7 +19864,7 @@
     <row r="193" spans="1:4">
       <c r="A193" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>0.2</v>
+        <v>0.19900000000000001</v>
       </c>
       <c r="B193" s="3">
         <f t="shared" si="9"/>
@@ -22210,7 +19890,7 @@
     <row r="195" spans="1:4">
       <c r="A195" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>0.19900000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="B195" s="3">
         <f t="shared" si="9"/>
@@ -22249,7 +19929,7 @@
     <row r="198" spans="1:4">
       <c r="A198" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>0.20100000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="B198" s="3">
         <f t="shared" si="9"/>
@@ -22262,7 +19942,7 @@
     <row r="199" spans="1:4">
       <c r="A199" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>0.2</v>
+        <v>0.20100000000000001</v>
       </c>
       <c r="B199" s="3">
         <f t="shared" si="9"/>
@@ -22288,7 +19968,7 @@
     <row r="201" spans="1:4">
       <c r="A201" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>0.20100000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="B201" s="3">
         <f t="shared" si="9"/>
@@ -22301,7 +19981,7 @@
     <row r="202" spans="1:4">
       <c r="A202" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>0.2</v>
+        <v>0.20100000000000001</v>
       </c>
       <c r="B202" s="3">
         <f t="shared" si="9"/>
@@ -22340,7 +20020,7 @@
     <row r="205" spans="1:4">
       <c r="A205" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>0.2</v>
+        <v>0.20100000000000001</v>
       </c>
       <c r="B205" s="3">
         <f t="shared" si="12"/>
@@ -22353,7 +20033,7 @@
     <row r="206" spans="1:4">
       <c r="A206" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>0.2</v>
+        <v>0.20100000000000001</v>
       </c>
       <c r="B206" s="3">
         <f t="shared" si="12"/>
@@ -22392,7 +20072,7 @@
     <row r="209" spans="1:4">
       <c r="A209" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>0.2</v>
+        <v>0.20100000000000001</v>
       </c>
       <c r="B209" s="3">
         <f t="shared" si="12"/>
@@ -22470,7 +20150,7 @@
     <row r="215" spans="1:4">
       <c r="A215" s="3">
         <f t="shared" ca="1" si="14"/>
-        <v>0.2</v>
+        <v>0.20100000000000001</v>
       </c>
       <c r="B215" s="3">
         <f t="shared" si="13"/>
@@ -22483,7 +20163,7 @@
     <row r="216" spans="1:4">
       <c r="A216" s="3">
         <f t="shared" ca="1" si="14"/>
-        <v>0.2</v>
+        <v>0.20100000000000001</v>
       </c>
       <c r="B216" s="3">
         <f t="shared" si="13"/>
@@ -22496,7 +20176,7 @@
     <row r="217" spans="1:4">
       <c r="A217" s="3">
         <f t="shared" ca="1" si="14"/>
-        <v>0.20100000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="B217" s="3">
         <f t="shared" si="13"/>
@@ -22509,7 +20189,7 @@
     <row r="218" spans="1:4">
       <c r="A218" s="3">
         <f t="shared" ca="1" si="14"/>
-        <v>0.2</v>
+        <v>0.20100000000000001</v>
       </c>
       <c r="B218" s="3">
         <f t="shared" si="13"/>
@@ -22522,7 +20202,7 @@
     <row r="219" spans="1:4">
       <c r="A219" s="3">
         <f t="shared" ca="1" si="14"/>
-        <v>0.20100000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="B219" s="3">
         <f t="shared" si="13"/>
@@ -22535,7 +20215,7 @@
     <row r="220" spans="1:4">
       <c r="A220" s="3">
         <f t="shared" ca="1" si="14"/>
-        <v>0.20100000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="B220" s="3">
         <f t="shared" si="13"/>
@@ -22574,7 +20254,7 @@
     <row r="223" spans="1:4">
       <c r="A223" s="3">
         <f t="shared" ca="1" si="14"/>
-        <v>0.2</v>
+        <v>0.20100000000000001</v>
       </c>
       <c r="B223" s="3">
         <f t="shared" si="13"/>
@@ -22652,7 +20332,7 @@
     <row r="229" spans="1:4">
       <c r="A229" s="3">
         <f t="shared" ca="1" si="14"/>
-        <v>0.2</v>
+        <v>0.20100000000000001</v>
       </c>
       <c r="B229" s="3">
         <f t="shared" si="13"/>
@@ -22678,7 +20358,7 @@
     <row r="231" spans="1:4">
       <c r="A231" s="3">
         <f t="shared" ca="1" si="14"/>
-        <v>0.2</v>
+        <v>0.20100000000000001</v>
       </c>
       <c r="B231" s="3">
         <f t="shared" si="13"/>
@@ -22691,7 +20371,7 @@
     <row r="232" spans="1:4">
       <c r="A232" s="3">
         <f t="shared" ca="1" si="14"/>
-        <v>0.20100000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="B232" s="3">
         <f t="shared" si="13"/>
@@ -22730,7 +20410,7 @@
     <row r="235" spans="1:4">
       <c r="A235" s="3">
         <f t="shared" ca="1" si="14"/>
-        <v>0.2</v>
+        <v>0.20100000000000001</v>
       </c>
       <c r="B235" s="3">
         <f t="shared" si="13"/>
@@ -22751,19 +20431,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="5">
@@ -22878,12 +20558,12 @@
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="34" t="s">
+      <c r="A11" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="34"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="5">
@@ -23011,36 +20691,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T52"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D58" sqref="D58"/>
+    <sheetView topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="O41" sqref="O41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:20">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="K1" s="35" t="s">
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="K1" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36"/>
-      <c r="R1" s="36"/>
-      <c r="S1" s="36"/>
-      <c r="T1" s="37"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="40"/>
+      <c r="P1" s="40"/>
+      <c r="Q1" s="40"/>
+      <c r="R1" s="40"/>
+      <c r="S1" s="40"/>
+      <c r="T1" s="41"/>
     </row>
     <row r="2" spans="1:20">
       <c r="A2" s="6" t="s">
@@ -23101,8 +20781,8 @@
     </row>
     <row r="3" spans="1:20">
       <c r="A3" s="9" t="str">
-        <f>"N="&amp;ROUND(B3*72,1)</f>
-        <v>N=9.8</v>
+        <f>"N="&amp;ROUND(B3*72,0)&amp;" MWt"</f>
+        <v>N=10 MWt</v>
       </c>
       <c r="B3" s="10">
         <v>0.13619999999999999</v>
@@ -23128,8 +20808,8 @@
     </row>
     <row r="4" spans="1:20">
       <c r="A4" s="9" t="str">
-        <f t="shared" ref="A4:A16" si="0">"N="&amp;ROUND(B4*72,1)</f>
-        <v>N=16.5</v>
+        <f t="shared" ref="A4:A16" si="0">"N="&amp;ROUND(B4*72,0)&amp;" MWt"</f>
+        <v>N=16 MWt</v>
       </c>
       <c r="B4" s="10">
         <v>0.2291</v>
@@ -23145,7 +20825,7 @@
       <c r="I4" s="11"/>
       <c r="J4" s="3"/>
       <c r="K4" s="8" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="L4" s="1"/>
       <c r="M4" s="1">
@@ -23172,7 +20852,7 @@
     <row r="5" spans="1:20">
       <c r="A5" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>N=19.1</v>
+        <v>N=19 MWt</v>
       </c>
       <c r="B5" s="10">
         <v>0.26500000000000001</v>
@@ -23188,7 +20868,7 @@
       <c r="I5" s="11"/>
       <c r="J5" s="3"/>
       <c r="K5" s="8" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1">
@@ -23215,7 +20895,7 @@
     <row r="6" spans="1:20">
       <c r="A6" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>N=22</v>
+        <v>N=22 MWt</v>
       </c>
       <c r="B6" s="10">
         <v>0.30609999999999998</v>
@@ -23233,7 +20913,7 @@
       <c r="I6" s="11"/>
       <c r="J6" s="3"/>
       <c r="K6" s="8" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
@@ -23248,7 +20928,7 @@
     <row r="7" spans="1:20">
       <c r="A7" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>N=28.2</v>
+        <v>N=28 MWt</v>
       </c>
       <c r="B7" s="10">
         <v>0.39150000000000001</v>
@@ -23268,7 +20948,7 @@
       <c r="I7" s="11"/>
       <c r="J7" s="3"/>
       <c r="K7" s="8" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
@@ -23283,7 +20963,7 @@
     <row r="8" spans="1:20">
       <c r="A8" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>N=31.4</v>
+        <v>N=31 MWt</v>
       </c>
       <c r="B8" s="10">
         <v>0.43609999999999999</v>
@@ -23305,7 +20985,7 @@
       <c r="I8" s="11"/>
       <c r="J8" s="3"/>
       <c r="K8" s="8" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
@@ -23320,7 +21000,7 @@
     <row r="9" spans="1:20">
       <c r="A9" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>N=34.9</v>
+        <v>N=35 MWt</v>
       </c>
       <c r="B9" s="10">
         <v>0.48409999999999997</v>
@@ -23342,7 +21022,7 @@
       <c r="I9" s="11"/>
       <c r="J9" s="3"/>
       <c r="K9" s="8" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="L9" s="1"/>
       <c r="M9" s="1">
@@ -23369,7 +21049,7 @@
     <row r="10" spans="1:20">
       <c r="A10" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>N=41.8</v>
+        <v>N=42 MWt</v>
       </c>
       <c r="B10" s="12">
         <v>0.58040000000000003</v>
@@ -23406,7 +21086,7 @@
     <row r="12" spans="1:20">
       <c r="A12" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>N=47.6</v>
+        <v>N=48 MWt</v>
       </c>
       <c r="B12" s="12">
         <v>0.66059999999999997</v>
@@ -23430,7 +21110,7 @@
     <row r="13" spans="1:20">
       <c r="A13" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>N=53.5</v>
+        <v>N=53 MWt</v>
       </c>
       <c r="B13" s="12">
         <v>0.74270000000000003</v>
@@ -23452,7 +21132,7 @@
     <row r="14" spans="1:20">
       <c r="A14" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>N=64.2</v>
+        <v>N=64 MWt</v>
       </c>
       <c r="B14" s="12">
         <v>0.8921</v>
@@ -23472,7 +21152,7 @@
     <row r="15" spans="1:20">
       <c r="A15" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>N=78.4</v>
+        <v>N=78 MWt</v>
       </c>
       <c r="B15" s="12">
         <v>1.0894999999999999</v>
@@ -23490,7 +21170,7 @@
     <row r="16" spans="1:20">
       <c r="A16" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>N=90.8</v>
+        <v>N=91 MWt</v>
       </c>
       <c r="B16" s="12">
         <v>1.2608999999999999</v>
@@ -23562,8 +21242,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AC52"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53"/>
+    <sheetView topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L38" sqref="L38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -23572,53 +21252,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="38"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
+      <c r="P1" s="42"/>
+      <c r="Q1" s="42"/>
       <c r="R1" s="27"/>
     </row>
     <row r="2" spans="1:29">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="43" t="s">
         <v>25</v>
       </c>
       <c r="B2" s="28"/>
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39"/>
-      <c r="O2" s="39"/>
-      <c r="P2" s="39"/>
-      <c r="Q2" s="39"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="43"/>
+      <c r="P2" s="43"/>
+      <c r="Q2" s="43"/>
       <c r="R2" s="29"/>
     </row>
     <row r="3" spans="1:29">
-      <c r="A3" s="39"/>
+      <c r="A3" s="43"/>
       <c r="B3" s="28">
         <v>0</v>
       </c>
@@ -25374,29 +23054,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="K1" s="35" t="s">
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="K1" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36"/>
-      <c r="R1" s="36"/>
-      <c r="S1" s="36"/>
-      <c r="T1" s="37"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="40"/>
+      <c r="P1" s="40"/>
+      <c r="Q1" s="40"/>
+      <c r="R1" s="40"/>
+      <c r="S1" s="40"/>
+      <c r="T1" s="41"/>
     </row>
     <row r="2" spans="1:20" ht="15.75">
       <c r="A2" s="6" t="s">
@@ -26209,29 +23889,29 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:20">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="K1" s="35" t="s">
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="K1" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36"/>
-      <c r="R1" s="36"/>
-      <c r="S1" s="36"/>
-      <c r="T1" s="37"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="40"/>
+      <c r="P1" s="40"/>
+      <c r="Q1" s="40"/>
+      <c r="R1" s="40"/>
+      <c r="S1" s="40"/>
+      <c r="T1" s="41"/>
     </row>
     <row r="2" spans="1:20">
       <c r="A2" s="6" t="s">
@@ -26788,8 +24468,190 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G8"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="44" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="45"/>
+      <c r="C1" s="46"/>
+      <c r="E1" s="44" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="45"/>
+      <c r="G1" s="46"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="34" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="35">
+        <v>59.37</v>
+      </c>
+      <c r="B3" s="35">
+        <v>60.48</v>
+      </c>
+      <c r="C3" s="35">
+        <v>68.17</v>
+      </c>
+      <c r="E3" s="35">
+        <v>49.89</v>
+      </c>
+      <c r="F3" s="35">
+        <v>63.25</v>
+      </c>
+      <c r="G3" s="35">
+        <v>44.43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="35">
+        <v>59.37</v>
+      </c>
+      <c r="B4" s="35">
+        <v>61.4</v>
+      </c>
+      <c r="C4" s="35">
+        <v>66.08</v>
+      </c>
+      <c r="E4" s="35">
+        <v>49.89</v>
+      </c>
+      <c r="F4" s="35">
+        <v>61</v>
+      </c>
+      <c r="G4" s="35">
+        <v>45.65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="35">
+        <v>59.37</v>
+      </c>
+      <c r="B5" s="35">
+        <v>62.45</v>
+      </c>
+      <c r="C5" s="35">
+        <v>64</v>
+      </c>
+      <c r="E5" s="35">
+        <v>49.89</v>
+      </c>
+      <c r="F5" s="37">
+        <v>59.6</v>
+      </c>
+      <c r="G5" s="35">
+        <v>47.11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="35">
+        <v>59.37</v>
+      </c>
+      <c r="B6" s="35">
+        <v>63.08</v>
+      </c>
+      <c r="C6" s="35">
+        <v>62.72</v>
+      </c>
+      <c r="E6" s="35">
+        <v>49.89</v>
+      </c>
+      <c r="F6" s="35">
+        <v>57.98</v>
+      </c>
+      <c r="G6" s="35">
+        <v>48.81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="35">
+        <v>59.37</v>
+      </c>
+      <c r="B7" s="35">
+        <v>64.98</v>
+      </c>
+      <c r="C7" s="35">
+        <v>61.25</v>
+      </c>
+      <c r="E7" s="35">
+        <v>49.89</v>
+      </c>
+      <c r="F7" s="35">
+        <v>56.61</v>
+      </c>
+      <c r="G7" s="35">
+        <v>50.33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="35">
+        <v>59.37</v>
+      </c>
+      <c r="B8" s="35">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="C8" s="35">
+        <v>59.89</v>
+      </c>
+      <c r="E8" s="35"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="35"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E1:G1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
